--- a/tables_ref/base_seuils.xlsx
+++ b/tables_ref/base_seuils.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eptbvilaine56-my.sharepoint.com/personal/anthony_deburghrave_eptb-vilaine_fr/Documents/Documents/R_Anthony/tools4DCE/tables_ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:40009_{6CBB6F6B-8B1D-4D1F-9F2D-9EFF996294A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{160F065A-B47E-4C62-9DB4-4B1B7988E781}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:40009_{6CBB6F6B-8B1D-4D1F-9F2D-9EFF996294A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B73D9EFF-FBC3-44DC-B810-2FD1799BCFC2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_seuils" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_seuils!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_seuils!$A$1:$L$681</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1674,15 +1674,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2815,7 +2816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -2981,7 +2982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -3301,7 +3302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -3406,7 +3407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -3508,7 +3509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -3572,7 +3573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -3948,7 +3949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -4117,7 +4118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -4152,7 +4153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -4187,7 +4188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -4292,7 +4293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -4391,7 +4392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -4423,7 +4424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>41</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>43</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>43</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>43</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>43</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>43</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>49</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>49</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>49</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>43</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>57</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>57</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>57</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>62</v>
       </c>
@@ -5191,7 +5192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>62</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>66</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>66</v>
       </c>
@@ -5319,7 +5320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>68</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>68</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>68</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>69</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>69</v>
       </c>
@@ -5479,7 +5480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>69</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>71</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>71</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>71</v>
       </c>
@@ -5607,7 +5608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>72</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>72</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>72</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>74</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -5767,7 +5768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>74</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>76</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>76</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>76</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>77</v>
       </c>
@@ -5927,7 +5928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -5991,7 +5992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>79</v>
       </c>
@@ -6055,7 +6056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>81</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>81</v>
       </c>
@@ -6151,7 +6152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>82</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>82</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>82</v>
       </c>
@@ -6247,7 +6248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>83</v>
       </c>
@@ -6279,7 +6280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>83</v>
       </c>
@@ -6311,7 +6312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>83</v>
       </c>
@@ -6343,7 +6344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>84</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>84</v>
       </c>
@@ -6407,7 +6408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>84</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>85</v>
       </c>
@@ -6471,7 +6472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>85</v>
       </c>
@@ -6503,7 +6504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>85</v>
       </c>
@@ -6535,7 +6536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>86</v>
       </c>
@@ -6567,7 +6568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>86</v>
       </c>
@@ -6599,7 +6600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>86</v>
       </c>
@@ -6631,7 +6632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>87</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>87</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>87</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>89</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>89</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>89</v>
       </c>
@@ -6823,7 +6824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>90</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -6887,7 +6888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>90</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>91</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>91</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>92</v>
       </c>
@@ -7015,7 +7016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>92</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>92</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>93</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>93</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>93</v>
       </c>
@@ -7184,7 +7185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>94</v>
       </c>
@@ -7219,7 +7220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>94</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>94</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>24</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>24</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -7385,7 +7386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>95</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>95</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>95</v>
       </c>
@@ -7499,7 +7500,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>95</v>
       </c>
@@ -7537,7 +7538,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>95</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>95</v>
       </c>
@@ -7613,7 +7614,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>98</v>
       </c>
@@ -7645,7 +7646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>98</v>
       </c>
@@ -7677,7 +7678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>98</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>100</v>
       </c>
@@ -7741,7 +7742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>100</v>
       </c>
@@ -7773,7 +7774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>100</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>102</v>
       </c>
@@ -7840,7 +7841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>102</v>
       </c>
@@ -7875,7 +7876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>103</v>
       </c>
@@ -7910,7 +7911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>103</v>
       </c>
@@ -7945,7 +7946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>104</v>
       </c>
@@ -7980,7 +7981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>104</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>105</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>105</v>
       </c>
@@ -8085,7 +8086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>106</v>
       </c>
@@ -8117,7 +8118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>106</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>106</v>
       </c>
@@ -8181,7 +8182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>107</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>107</v>
       </c>
@@ -8245,7 +8246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>107</v>
       </c>
@@ -8277,7 +8278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>108</v>
       </c>
@@ -8309,7 +8310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>108</v>
       </c>
@@ -8341,7 +8342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>72</v>
       </c>
@@ -8373,7 +8374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>72</v>
       </c>
@@ -8405,7 +8406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>79</v>
       </c>
@@ -8437,7 +8438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>79</v>
       </c>
@@ -8469,7 +8470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>82</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>82</v>
       </c>
@@ -8533,7 +8534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>85</v>
       </c>
@@ -8565,7 +8566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>85</v>
       </c>
@@ -8597,7 +8598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>89</v>
       </c>
@@ -8629,7 +8630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>57</v>
       </c>
@@ -8693,7 +8694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>57</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>83</v>
       </c>
@@ -8757,7 +8758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>83</v>
       </c>
@@ -8789,7 +8790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>71</v>
       </c>
@@ -8821,7 +8822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>71</v>
       </c>
@@ -8853,7 +8854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>81</v>
       </c>
@@ -8885,7 +8886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>81</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>84</v>
       </c>
@@ -8949,7 +8950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>84</v>
       </c>
@@ -8981,7 +8982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>106</v>
       </c>
@@ -9013,7 +9014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>106</v>
       </c>
@@ -9045,7 +9046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>76</v>
       </c>
@@ -9077,7 +9078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>76</v>
       </c>
@@ -9109,7 +9110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>107</v>
       </c>
@@ -9141,7 +9142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>107</v>
       </c>
@@ -9173,7 +9174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>86</v>
       </c>
@@ -9205,7 +9206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>86</v>
       </c>
@@ -9237,7 +9238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>109</v>
       </c>
@@ -9269,7 +9270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>109</v>
       </c>
@@ -9301,7 +9302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>109</v>
       </c>
@@ -9333,7 +9334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>110</v>
       </c>
@@ -9365,7 +9366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>110</v>
       </c>
@@ -9397,7 +9398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>111</v>
       </c>
@@ -9429,7 +9430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>111</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>111</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>113</v>
       </c>
@@ -9525,7 +9526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>113</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>113</v>
       </c>
@@ -9589,7 +9590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>114</v>
       </c>
@@ -9621,7 +9622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>114</v>
       </c>
@@ -9653,7 +9654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>116</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>116</v>
       </c>
@@ -9729,7 +9730,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>116</v>
       </c>
@@ -9767,7 +9768,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>116</v>
       </c>
@@ -9805,7 +9806,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>116</v>
       </c>
@@ -9843,7 +9844,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>116</v>
       </c>
@@ -9881,7 +9882,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>116</v>
       </c>
@@ -9919,7 +9920,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>116</v>
       </c>
@@ -9957,7 +9958,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>116</v>
       </c>
@@ -9995,7 +9996,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>116</v>
       </c>
@@ -10033,7 +10034,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>116</v>
       </c>
@@ -10071,7 +10072,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>116</v>
       </c>
@@ -10109,7 +10110,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>116</v>
       </c>
@@ -10147,7 +10148,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>116</v>
       </c>
@@ -10185,7 +10186,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>116</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>122</v>
       </c>
@@ -10255,7 +10256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>122</v>
       </c>
@@ -10287,7 +10288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>123</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>123</v>
       </c>
@@ -10351,7 +10352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>123</v>
       </c>
@@ -10383,7 +10384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>124</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>124</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>124</v>
       </c>
@@ -10479,7 +10480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>125</v>
       </c>
@@ -10511,7 +10512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>125</v>
       </c>
@@ -10543,7 +10544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>125</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>126</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>126</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>127</v>
       </c>
@@ -10671,7 +10672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>127</v>
       </c>
@@ -10703,7 +10704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>128</v>
       </c>
@@ -10735,7 +10736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>128</v>
       </c>
@@ -10767,7 +10768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>129</v>
       </c>
@@ -10799,7 +10800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>129</v>
       </c>
@@ -10831,7 +10832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>130</v>
       </c>
@@ -10863,7 +10864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>130</v>
       </c>
@@ -10895,7 +10896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>131</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>131</v>
       </c>
@@ -10959,7 +10960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>132</v>
       </c>
@@ -10991,7 +10992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>132</v>
       </c>
@@ -11023,7 +11024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>132</v>
       </c>
@@ -11055,7 +11056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>133</v>
       </c>
@@ -11087,7 +11088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>133</v>
       </c>
@@ -11119,7 +11120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>133</v>
       </c>
@@ -11151,7 +11152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>134</v>
       </c>
@@ -11183,7 +11184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>134</v>
       </c>
@@ -11215,7 +11216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>134</v>
       </c>
@@ -11247,7 +11248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>135</v>
       </c>
@@ -11279,7 +11280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>135</v>
       </c>
@@ -11311,7 +11312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>136</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>136</v>
       </c>
@@ -11375,7 +11376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>137</v>
       </c>
@@ -11407,7 +11408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>137</v>
       </c>
@@ -11439,7 +11440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>137</v>
       </c>
@@ -11471,7 +11472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>69</v>
       </c>
@@ -11503,7 +11504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>69</v>
       </c>
@@ -11535,7 +11536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>69</v>
       </c>
@@ -11567,7 +11568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>138</v>
       </c>
@@ -11602,7 +11603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>138</v>
       </c>
@@ -11637,7 +11638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>139</v>
       </c>
@@ -11669,7 +11670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>139</v>
       </c>
@@ -11701,7 +11702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>139</v>
       </c>
@@ -11733,7 +11734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>140</v>
       </c>
@@ -11765,7 +11766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>140</v>
       </c>
@@ -11797,7 +11798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>140</v>
       </c>
@@ -11829,7 +11830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>141</v>
       </c>
@@ -11861,7 +11862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>141</v>
       </c>
@@ -11893,7 +11894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>142</v>
       </c>
@@ -11925,7 +11926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>142</v>
       </c>
@@ -11957,7 +11958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>143</v>
       </c>
@@ -11989,7 +11990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>143</v>
       </c>
@@ -12021,7 +12022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>143</v>
       </c>
@@ -12053,7 +12054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>144</v>
       </c>
@@ -12085,7 +12086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>144</v>
       </c>
@@ -12117,7 +12118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>144</v>
       </c>
@@ -12149,7 +12150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>145</v>
       </c>
@@ -12181,7 +12182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>145</v>
       </c>
@@ -12213,7 +12214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>146</v>
       </c>
@@ -12245,7 +12246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>146</v>
       </c>
@@ -12277,7 +12278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>147</v>
       </c>
@@ -12309,7 +12310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>147</v>
       </c>
@@ -12341,7 +12342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>148</v>
       </c>
@@ -12373,7 +12374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>148</v>
       </c>
@@ -12405,7 +12406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>148</v>
       </c>
@@ -12437,7 +12438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>149</v>
       </c>
@@ -12469,7 +12470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>149</v>
       </c>
@@ -12501,7 +12502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>150</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>150</v>
       </c>
@@ -12565,7 +12566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>151</v>
       </c>
@@ -12597,7 +12598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>151</v>
       </c>
@@ -12629,7 +12630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>151</v>
       </c>
@@ -12661,7 +12662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>152</v>
       </c>
@@ -12693,7 +12694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>152</v>
       </c>
@@ -12725,7 +12726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>91</v>
       </c>
@@ -12757,7 +12758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>91</v>
       </c>
@@ -12789,7 +12790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>153</v>
       </c>
@@ -12821,7 +12822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>153</v>
       </c>
@@ -12853,7 +12854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>154</v>
       </c>
@@ -12885,7 +12886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>154</v>
       </c>
@@ -12917,7 +12918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>155</v>
       </c>
@@ -12949,7 +12950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>155</v>
       </c>
@@ -12981,7 +12982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>155</v>
       </c>
@@ -13013,7 +13014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>156</v>
       </c>
@@ -13045,7 +13046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>156</v>
       </c>
@@ -13077,7 +13078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>156</v>
       </c>
@@ -13109,7 +13110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>157</v>
       </c>
@@ -13141,7 +13142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>157</v>
       </c>
@@ -13173,7 +13174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>158</v>
       </c>
@@ -13205,7 +13206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>158</v>
       </c>
@@ -13237,7 +13238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>158</v>
       </c>
@@ -13269,7 +13270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>159</v>
       </c>
@@ -13301,7 +13302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>159</v>
       </c>
@@ -13333,7 +13334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>159</v>
       </c>
@@ -13365,7 +13366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>90</v>
       </c>
@@ -13397,7 +13398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>90</v>
       </c>
@@ -13429,7 +13430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>90</v>
       </c>
@@ -13461,7 +13462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>160</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>160</v>
       </c>
@@ -13525,7 +13526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>160</v>
       </c>
@@ -13557,7 +13558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>161</v>
       </c>
@@ -13589,7 +13590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>161</v>
       </c>
@@ -13621,7 +13622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>161</v>
       </c>
@@ -13653,7 +13654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>162</v>
       </c>
@@ -13685,7 +13686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>162</v>
       </c>
@@ -13717,7 +13718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>162</v>
       </c>
@@ -13749,7 +13750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>163</v>
       </c>
@@ -13781,7 +13782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>163</v>
       </c>
@@ -13813,7 +13814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>163</v>
       </c>
@@ -13845,7 +13846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>164</v>
       </c>
@@ -13877,7 +13878,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>164</v>
       </c>
@@ -13909,7 +13910,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>164</v>
       </c>
@@ -13941,7 +13942,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>164</v>
       </c>
@@ -13973,7 +13974,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>164</v>
       </c>
@@ -14005,7 +14006,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>164</v>
       </c>
@@ -14037,7 +14038,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>164</v>
       </c>
@@ -14069,7 +14070,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>164</v>
       </c>
@@ -14101,7 +14102,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>164</v>
       </c>
@@ -14133,7 +14134,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>164</v>
       </c>
@@ -14165,7 +14166,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>164</v>
       </c>
@@ -14197,7 +14198,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>164</v>
       </c>
@@ -14229,7 +14230,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>164</v>
       </c>
@@ -14261,7 +14262,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>164</v>
       </c>
@@ -14293,7 +14294,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>164</v>
       </c>
@@ -14325,7 +14326,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>31</v>
       </c>
@@ -14357,7 +14358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>31</v>
       </c>
@@ -14389,7 +14390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>31</v>
       </c>
@@ -14421,7 +14422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>31</v>
       </c>
@@ -14453,7 +14454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>174</v>
       </c>
@@ -14485,7 +14486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>174</v>
       </c>
@@ -14517,7 +14518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>174</v>
       </c>
@@ -14549,7 +14550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>174</v>
       </c>
@@ -14581,7 +14582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>174</v>
       </c>
@@ -14613,7 +14614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>174</v>
       </c>
@@ -14645,7 +14646,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>174</v>
       </c>
@@ -14677,7 +14678,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>174</v>
       </c>
@@ -14709,7 +14710,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>174</v>
       </c>
@@ -14741,7 +14742,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>174</v>
       </c>
@@ -14773,7 +14774,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>176</v>
       </c>
@@ -14805,7 +14806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>176</v>
       </c>
@@ -14837,7 +14838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>176</v>
       </c>
@@ -14869,7 +14870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>176</v>
       </c>
@@ -14901,7 +14902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>176</v>
       </c>
@@ -14933,7 +14934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>183</v>
       </c>
@@ -14965,7 +14966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>183</v>
       </c>
@@ -14997,7 +14998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>183</v>
       </c>
@@ -15029,7 +15030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>183</v>
       </c>
@@ -15061,7 +15062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>183</v>
       </c>
@@ -15093,7 +15094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>184</v>
       </c>
@@ -15125,7 +15126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>184</v>
       </c>
@@ -15157,7 +15158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>184</v>
       </c>
@@ -15189,7 +15190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>184</v>
       </c>
@@ -15221,7 +15222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>184</v>
       </c>
@@ -15253,7 +15254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>185</v>
       </c>
@@ -15285,7 +15286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>185</v>
       </c>
@@ -15317,7 +15318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>185</v>
       </c>
@@ -15349,7 +15350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>185</v>
       </c>
@@ -15381,7 +15382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>185</v>
       </c>
@@ -15413,7 +15414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>186</v>
       </c>
@@ -15445,7 +15446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>186</v>
       </c>
@@ -15477,7 +15478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>186</v>
       </c>
@@ -15509,7 +15510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>186</v>
       </c>
@@ -15541,7 +15542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>186</v>
       </c>
@@ -15573,7 +15574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>176</v>
       </c>
@@ -15605,7 +15606,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>176</v>
       </c>
@@ -15637,7 +15638,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>176</v>
       </c>
@@ -15669,7 +15670,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>176</v>
       </c>
@@ -15701,7 +15702,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>176</v>
       </c>
@@ -15733,7 +15734,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>183</v>
       </c>
@@ -15765,7 +15766,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>183</v>
       </c>
@@ -15797,7 +15798,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>183</v>
       </c>
@@ -15829,7 +15830,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>183</v>
       </c>
@@ -15861,7 +15862,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>183</v>
       </c>
@@ -15893,7 +15894,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>184</v>
       </c>
@@ -15925,7 +15926,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>184</v>
       </c>
@@ -15957,7 +15958,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>184</v>
       </c>
@@ -15989,7 +15990,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>184</v>
       </c>
@@ -16021,7 +16022,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>184</v>
       </c>
@@ -16053,7 +16054,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>185</v>
       </c>
@@ -16085,7 +16086,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>185</v>
       </c>
@@ -16117,7 +16118,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>185</v>
       </c>
@@ -16149,7 +16150,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>185</v>
       </c>
@@ -16181,7 +16182,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>185</v>
       </c>
@@ -16213,7 +16214,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>186</v>
       </c>
@@ -16245,7 +16246,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>186</v>
       </c>
@@ -16277,7 +16278,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>186</v>
       </c>
@@ -16309,7 +16310,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>186</v>
       </c>
@@ -16341,7 +16342,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>186</v>
       </c>
@@ -16373,7 +16374,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>164</v>
       </c>
@@ -16405,7 +16406,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>164</v>
       </c>
@@ -16437,7 +16438,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>164</v>
       </c>
@@ -16469,7 +16470,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>164</v>
       </c>
@@ -16501,7 +16502,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>164</v>
       </c>
@@ -16533,7 +16534,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>164</v>
       </c>
@@ -16565,7 +16566,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>164</v>
       </c>
@@ -16597,7 +16598,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>164</v>
       </c>
@@ -16629,7 +16630,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>164</v>
       </c>
@@ -16661,7 +16662,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>164</v>
       </c>
@@ -16693,7 +16694,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>164</v>
       </c>
@@ -16725,7 +16726,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>164</v>
       </c>
@@ -16757,7 +16758,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>164</v>
       </c>
@@ -16789,7 +16790,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>164</v>
       </c>
@@ -16821,7 +16822,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>164</v>
       </c>
@@ -16853,7 +16854,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>164</v>
       </c>
@@ -16885,7 +16886,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>164</v>
       </c>
@@ -16917,7 +16918,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>164</v>
       </c>
@@ -16949,7 +16950,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>164</v>
       </c>
@@ -16981,7 +16982,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>164</v>
       </c>
@@ -17013,7 +17014,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>192</v>
       </c>
@@ -17042,7 +17043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>192</v>
       </c>
@@ -17071,7 +17072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>192</v>
       </c>
@@ -17100,7 +17101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>192</v>
       </c>
@@ -17129,7 +17130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>192</v>
       </c>
@@ -17158,7 +17159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>193</v>
       </c>
@@ -17187,7 +17188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>193</v>
       </c>
@@ -17216,7 +17217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>193</v>
       </c>
@@ -17245,7 +17246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>193</v>
       </c>
@@ -17274,7 +17275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>193</v>
       </c>
@@ -17303,7 +17304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>194</v>
       </c>
@@ -17335,7 +17336,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>194</v>
       </c>
@@ -17367,7 +17368,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>194</v>
       </c>
@@ -17399,7 +17400,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>194</v>
       </c>
@@ -17431,7 +17432,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>194</v>
       </c>
@@ -17463,7 +17464,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>194</v>
       </c>
@@ -17495,7 +17496,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>194</v>
       </c>
@@ -17527,7 +17528,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>194</v>
       </c>
@@ -17559,7 +17560,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>194</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>194</v>
       </c>
@@ -17623,7 +17624,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>197</v>
       </c>
@@ -17652,7 +17653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>197</v>
       </c>
@@ -17681,7 +17682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>197</v>
       </c>
@@ -17710,7 +17711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>197</v>
       </c>
@@ -17739,7 +17740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>197</v>
       </c>
@@ -17768,7 +17769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>198</v>
       </c>
@@ -17794,7 +17795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>198</v>
       </c>
@@ -17820,7 +17821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>198</v>
       </c>
@@ -17846,7 +17847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>198</v>
       </c>
@@ -17872,7 +17873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>198</v>
       </c>
@@ -17898,7 +17899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>199</v>
       </c>
@@ -17924,7 +17925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>199</v>
       </c>
@@ -17950,7 +17951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>199</v>
       </c>
@@ -17976,7 +17977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>199</v>
       </c>
@@ -18002,7 +18003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>199</v>
       </c>
@@ -18028,7 +18029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>200</v>
       </c>
@@ -18054,7 +18055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>200</v>
       </c>
@@ -18080,7 +18081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>200</v>
       </c>
@@ -18106,7 +18107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>200</v>
       </c>
@@ -18132,7 +18133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>200</v>
       </c>
@@ -18158,7 +18159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>201</v>
       </c>
@@ -18184,7 +18185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>201</v>
       </c>
@@ -18210,7 +18211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>201</v>
       </c>
@@ -18236,7 +18237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>201</v>
       </c>
@@ -18262,7 +18263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>201</v>
       </c>
@@ -18288,7 +18289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>202</v>
       </c>
@@ -18314,7 +18315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>202</v>
       </c>
@@ -18340,7 +18341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>202</v>
       </c>
@@ -18366,7 +18367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>202</v>
       </c>
@@ -18392,7 +18393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>202</v>
       </c>
@@ -18418,7 +18419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>203</v>
       </c>
@@ -18444,7 +18445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>203</v>
       </c>
@@ -18470,7 +18471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>203</v>
       </c>
@@ -18496,7 +18497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>203</v>
       </c>
@@ -18522,7 +18523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>203</v>
       </c>
@@ -18548,7 +18549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>204</v>
       </c>
@@ -18577,7 +18578,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>204</v>
       </c>
@@ -18606,7 +18607,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>204</v>
       </c>
@@ -18635,7 +18636,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>204</v>
       </c>
@@ -18664,7 +18665,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>204</v>
       </c>
@@ -18693,7 +18694,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>204</v>
       </c>
@@ -18722,7 +18723,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>204</v>
       </c>
@@ -18751,7 +18752,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>204</v>
       </c>
@@ -18780,7 +18781,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>204</v>
       </c>
@@ -18809,7 +18810,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>204</v>
       </c>
@@ -18838,7 +18839,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>207</v>
       </c>
@@ -18864,7 +18865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>207</v>
       </c>
@@ -18890,7 +18891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>207</v>
       </c>
@@ -18916,7 +18917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>207</v>
       </c>
@@ -18942,7 +18943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>207</v>
       </c>
@@ -18968,7 +18969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>208</v>
       </c>
@@ -19000,7 +19001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>208</v>
       </c>
@@ -19032,7 +19033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>211</v>
       </c>
@@ -19064,7 +19065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>211</v>
       </c>
@@ -19096,7 +19097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>211</v>
       </c>
@@ -19128,7 +19129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>212</v>
       </c>
@@ -19160,7 +19161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>212</v>
       </c>
@@ -19192,7 +19193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>212</v>
       </c>
@@ -19224,7 +19225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>213</v>
       </c>
@@ -19256,7 +19257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>213</v>
       </c>
@@ -19288,7 +19289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>213</v>
       </c>
@@ -19320,7 +19321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>214</v>
       </c>
@@ -19355,7 +19356,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>214</v>
       </c>
@@ -19390,7 +19391,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>216</v>
       </c>
@@ -19422,7 +19423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>216</v>
       </c>
@@ -19454,7 +19455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>216</v>
       </c>
@@ -19486,7 +19487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>217</v>
       </c>
@@ -19518,7 +19519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>217</v>
       </c>
@@ -19550,7 +19551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>218</v>
       </c>
@@ -19582,7 +19583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>218</v>
       </c>
@@ -19614,7 +19615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>87</v>
       </c>
@@ -19646,7 +19647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>87</v>
       </c>
@@ -19678,7 +19679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>87</v>
       </c>
@@ -19710,7 +19711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>219</v>
       </c>
@@ -19742,7 +19743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>219</v>
       </c>
@@ -19774,7 +19775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>220</v>
       </c>
@@ -19809,7 +19810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>220</v>
       </c>
@@ -19844,7 +19845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>226</v>
       </c>
@@ -19879,7 +19880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>226</v>
       </c>
@@ -19914,7 +19915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>227</v>
       </c>
@@ -19949,7 +19950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>227</v>
       </c>
@@ -19984,7 +19985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>228</v>
       </c>
@@ -20019,7 +20020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>228</v>
       </c>
@@ -20054,7 +20055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>229</v>
       </c>
@@ -20089,7 +20090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>229</v>
       </c>
@@ -20124,7 +20125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>230</v>
       </c>
@@ -20159,7 +20160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>230</v>
       </c>
@@ -20194,7 +20195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>231</v>
       </c>
@@ -20229,7 +20230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>231</v>
       </c>
@@ -20264,7 +20265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>232</v>
       </c>
@@ -20299,7 +20300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>232</v>
       </c>
@@ -20334,7 +20335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>233</v>
       </c>
@@ -20366,7 +20367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>233</v>
       </c>
@@ -20398,7 +20399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>234</v>
       </c>
@@ -20430,7 +20431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>234</v>
       </c>
@@ -20462,7 +20463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>234</v>
       </c>
@@ -20494,7 +20495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>240</v>
       </c>
@@ -20526,7 +20527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>240</v>
       </c>
@@ -20558,7 +20559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>240</v>
       </c>
@@ -20590,7 +20591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>241</v>
       </c>
@@ -20622,7 +20623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>241</v>
       </c>
@@ -20654,7 +20655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>241</v>
       </c>
@@ -20686,7 +20687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>243</v>
       </c>
@@ -20718,7 +20719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>243</v>
       </c>
@@ -20750,7 +20751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>243</v>
       </c>
@@ -20782,7 +20783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>245</v>
       </c>
@@ -20814,7 +20815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>245</v>
       </c>
@@ -20846,7 +20847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>245</v>
       </c>
@@ -20878,7 +20879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>246</v>
       </c>
@@ -20910,7 +20911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>246</v>
       </c>
@@ -20942,7 +20943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>246</v>
       </c>
@@ -20974,7 +20975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>247</v>
       </c>
@@ -21006,7 +21007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>247</v>
       </c>
@@ -21038,7 +21039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>247</v>
       </c>
@@ -21070,7 +21071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>248</v>
       </c>
@@ -21102,7 +21103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>248</v>
       </c>
@@ -21134,7 +21135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>248</v>
       </c>
@@ -21166,7 +21167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>250</v>
       </c>
@@ -21198,7 +21199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>250</v>
       </c>
@@ -21230,7 +21231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>250</v>
       </c>
@@ -21262,7 +21263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>250</v>
       </c>
@@ -21294,7 +21295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>250</v>
       </c>
@@ -21326,7 +21327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>250</v>
       </c>
@@ -21358,7 +21359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>251</v>
       </c>
@@ -21390,7 +21391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>251</v>
       </c>
@@ -21422,7 +21423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>251</v>
       </c>
@@ -21454,7 +21455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>252</v>
       </c>
@@ -21486,7 +21487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>252</v>
       </c>
@@ -21518,7 +21519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>252</v>
       </c>
@@ -21550,7 +21551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>252</v>
       </c>
@@ -21582,7 +21583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>252</v>
       </c>
@@ -21614,7 +21615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>252</v>
       </c>
@@ -21646,7 +21647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>253</v>
       </c>
@@ -21678,7 +21679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>253</v>
       </c>
@@ -21710,7 +21711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>253</v>
       </c>
@@ -21742,7 +21743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>253</v>
       </c>
@@ -21774,7 +21775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>253</v>
       </c>
@@ -21806,7 +21807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>253</v>
       </c>
@@ -21838,7 +21839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>86</v>
       </c>
@@ -21870,7 +21871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>86</v>
       </c>
@@ -21902,7 +21903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>86</v>
       </c>
@@ -21934,7 +21935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>254</v>
       </c>
@@ -21966,7 +21967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>254</v>
       </c>
@@ -21998,7 +21999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>254</v>
       </c>
@@ -22030,7 +22031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>74</v>
       </c>
@@ -22062,7 +22063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>74</v>
       </c>
@@ -22094,7 +22095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>74</v>
       </c>
@@ -22126,7 +22127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>71</v>
       </c>
@@ -22158,7 +22159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>71</v>
       </c>
@@ -22190,7 +22191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>71</v>
       </c>
@@ -22222,7 +22223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>255</v>
       </c>
@@ -22254,7 +22255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>255</v>
       </c>
@@ -22286,7 +22287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>255</v>
       </c>
@@ -22318,7 +22319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>255</v>
       </c>
@@ -22350,7 +22351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>255</v>
       </c>
@@ -22382,7 +22383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>256</v>
       </c>
@@ -22414,7 +22415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>256</v>
       </c>
@@ -22446,7 +22447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>256</v>
       </c>
@@ -22478,7 +22479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>256</v>
       </c>
@@ -22510,7 +22511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>256</v>
       </c>
@@ -22542,7 +22543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>256</v>
       </c>
@@ -22574,7 +22575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>111</v>
       </c>
@@ -22606,7 +22607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>111</v>
       </c>
@@ -22638,7 +22639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>111</v>
       </c>
@@ -22670,7 +22671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>258</v>
       </c>
@@ -22702,7 +22703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>258</v>
       </c>
@@ -22734,7 +22735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>258</v>
       </c>
@@ -22766,7 +22767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>260</v>
       </c>
@@ -22798,7 +22799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>260</v>
       </c>
@@ -22830,7 +22831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>260</v>
       </c>
@@ -22862,7 +22863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>262</v>
       </c>
@@ -22894,7 +22895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>262</v>
       </c>
@@ -22926,7 +22927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>262</v>
       </c>
@@ -22958,7 +22959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>264</v>
       </c>
@@ -22990,7 +22991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>264</v>
       </c>
@@ -23022,7 +23023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>264</v>
       </c>
@@ -23054,7 +23055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>89</v>
       </c>
@@ -23086,7 +23087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>89</v>
       </c>
@@ -23118,7 +23119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>89</v>
       </c>
@@ -23150,7 +23151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>254</v>
       </c>
@@ -23182,7 +23183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>254</v>
       </c>
@@ -23214,7 +23215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>254</v>
       </c>
@@ -23246,7 +23247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>254</v>
       </c>
@@ -23278,7 +23279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>254</v>
       </c>
@@ -23310,7 +23311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>254</v>
       </c>
@@ -23342,7 +23343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>57</v>
       </c>
@@ -23374,7 +23375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>57</v>
       </c>
@@ -23406,7 +23407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>57</v>
       </c>
@@ -23438,7 +23439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>268</v>
       </c>
@@ -23470,7 +23471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>268</v>
       </c>
@@ -23502,7 +23503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>268</v>
       </c>
@@ -23535,7 +23536,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{F286AD5F-D1BB-48A0-BAB8-51B16C5EF862}"/>
+  <autoFilter ref="A1:L681" xr:uid="{F286AD5F-D1BB-48A0-BAB8-51B16C5EF862}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Glyphosate"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="AEP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tables_ref/base_seuils.xlsx
+++ b/tables_ref/base_seuils.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eptbvilaine56-my.sharepoint.com/personal/anthony_deburghrave_eptb-vilaine_fr/Documents/Documents/R_Anthony/tools4DCE/tables_ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:40009_{6CBB6F6B-8B1D-4D1F-9F2D-9EFF996294A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C0759A15-5A0F-44EF-9C90-3C5B66A2206E}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:40009_{6CBB6F6B-8B1D-4D1F-9F2D-9EFF996294A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{88D686CB-3C89-4B0D-A1EA-33594535A625}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_seuils" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_seuils!$A$1:$L$603</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base_seuils!$A$1:$L$1161</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -2643,10 +2643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L1161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
-      <selection activeCell="A604" sqref="A604:L1161"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="L246" sqref="L246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,7 +3040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -3071,7 +3072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3359,7 +3360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -3784,7 +3785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -4110,7 +4111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -4270,7 +4271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -4445,7 +4446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -4640,7 +4641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -4710,7 +4711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -4780,7 +4781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -4885,7 +4886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -5016,7 +5017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -5051,7 +5052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -5121,7 +5122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -5191,7 +5192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -5226,7 +5227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -5261,7 +5262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -5328,7 +5329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -5392,7 +5393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -5424,7 +5425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -5456,7 +5457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>41</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -5584,7 +5585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>43</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>43</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -5744,7 +5745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>43</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>43</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>43</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>49</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>49</v>
       </c>
@@ -5904,7 +5905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>49</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -5968,7 +5969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -6000,7 +6001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>43</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>57</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>57</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>57</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>62</v>
       </c>
@@ -6160,7 +6161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>62</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>66</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>66</v>
       </c>
@@ -6288,7 +6289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>68</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>68</v>
       </c>
@@ -6352,7 +6353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>68</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>69</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>69</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>69</v>
       </c>
@@ -6480,7 +6481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>71</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>71</v>
       </c>
@@ -6544,7 +6545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>71</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>72</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>72</v>
       </c>
@@ -6640,7 +6641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>72</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>74</v>
       </c>
@@ -6704,7 +6705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -6736,7 +6737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>74</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>76</v>
       </c>
@@ -6800,7 +6801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>76</v>
       </c>
@@ -6832,7 +6833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>76</v>
       </c>
@@ -6864,7 +6865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>77</v>
       </c>
@@ -6896,7 +6897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -6928,7 +6929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -6960,7 +6961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>79</v>
       </c>
@@ -7024,7 +7025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>81</v>
       </c>
@@ -7056,7 +7057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>81</v>
       </c>
@@ -7120,7 +7121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>82</v>
       </c>
@@ -7152,7 +7153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>82</v>
       </c>
@@ -7184,7 +7185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>82</v>
       </c>
@@ -7216,7 +7217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>83</v>
       </c>
@@ -7248,7 +7249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>83</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>83</v>
       </c>
@@ -7312,7 +7313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>84</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>84</v>
       </c>
@@ -7376,7 +7377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>84</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>85</v>
       </c>
@@ -7440,7 +7441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>85</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>85</v>
       </c>
@@ -7504,7 +7505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>86</v>
       </c>
@@ -7536,7 +7537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>86</v>
       </c>
@@ -7568,7 +7569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>86</v>
       </c>
@@ -7600,7 +7601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>87</v>
       </c>
@@ -7632,7 +7633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>87</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>87</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>89</v>
       </c>
@@ -7728,7 +7729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>89</v>
       </c>
@@ -7760,7 +7761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>89</v>
       </c>
@@ -7792,7 +7793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>90</v>
       </c>
@@ -7824,7 +7825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>90</v>
       </c>
@@ -7888,7 +7889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>91</v>
       </c>
@@ -7920,7 +7921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>91</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>92</v>
       </c>
@@ -7984,7 +7985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>92</v>
       </c>
@@ -8016,7 +8017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>92</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>93</v>
       </c>
@@ -8083,7 +8084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>93</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>93</v>
       </c>
@@ -8153,7 +8154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>94</v>
       </c>
@@ -8188,7 +8189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>94</v>
       </c>
@@ -8223,7 +8224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>94</v>
       </c>
@@ -8258,7 +8259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>24</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>24</v>
       </c>
@@ -8322,7 +8323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>98</v>
       </c>
@@ -8614,7 +8615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>98</v>
       </c>
@@ -8646,7 +8647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>98</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>100</v>
       </c>
@@ -8710,7 +8711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>100</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>100</v>
       </c>
@@ -8774,7 +8775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>102</v>
       </c>
@@ -8809,7 +8810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>102</v>
       </c>
@@ -8844,7 +8845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>103</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>103</v>
       </c>
@@ -8914,7 +8915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>104</v>
       </c>
@@ -8949,7 +8950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>104</v>
       </c>
@@ -8984,7 +8985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>105</v>
       </c>
@@ -9019,7 +9020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>105</v>
       </c>
@@ -9054,7 +9055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>106</v>
       </c>
@@ -9086,7 +9087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>106</v>
       </c>
@@ -9118,7 +9119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>106</v>
       </c>
@@ -9150,7 +9151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>107</v>
       </c>
@@ -9182,7 +9183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>107</v>
       </c>
@@ -9214,7 +9215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>107</v>
       </c>
@@ -9246,7 +9247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>108</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>108</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>72</v>
       </c>
@@ -9342,7 +9343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>72</v>
       </c>
@@ -9374,7 +9375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>79</v>
       </c>
@@ -9406,7 +9407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>79</v>
       </c>
@@ -9438,7 +9439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>82</v>
       </c>
@@ -9470,7 +9471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>82</v>
       </c>
@@ -9502,7 +9503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>85</v>
       </c>
@@ -9534,7 +9535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>85</v>
       </c>
@@ -9566,7 +9567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>89</v>
       </c>
@@ -9598,7 +9599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -9630,7 +9631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>57</v>
       </c>
@@ -9662,7 +9663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>57</v>
       </c>
@@ -9694,7 +9695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>83</v>
       </c>
@@ -9726,7 +9727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>83</v>
       </c>
@@ -9758,7 +9759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>71</v>
       </c>
@@ -9790,7 +9791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>71</v>
       </c>
@@ -9822,7 +9823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>81</v>
       </c>
@@ -9854,7 +9855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>81</v>
       </c>
@@ -9886,7 +9887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>84</v>
       </c>
@@ -9918,7 +9919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>84</v>
       </c>
@@ -9950,7 +9951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>106</v>
       </c>
@@ -9982,7 +9983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>106</v>
       </c>
@@ -10014,7 +10015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>76</v>
       </c>
@@ -10046,7 +10047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>76</v>
       </c>
@@ -10078,7 +10079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>107</v>
       </c>
@@ -10110,7 +10111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>107</v>
       </c>
@@ -10142,7 +10143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>86</v>
       </c>
@@ -10174,7 +10175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>86</v>
       </c>
@@ -10206,7 +10207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>109</v>
       </c>
@@ -10238,7 +10239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>109</v>
       </c>
@@ -10270,7 +10271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>109</v>
       </c>
@@ -10302,7 +10303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>110</v>
       </c>
@@ -10334,7 +10335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>110</v>
       </c>
@@ -10366,7 +10367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>111</v>
       </c>
@@ -10398,7 +10399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>111</v>
       </c>
@@ -10430,7 +10431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>111</v>
       </c>
@@ -10462,7 +10463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>113</v>
       </c>
@@ -10494,7 +10495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>113</v>
       </c>
@@ -10526,7 +10527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>113</v>
       </c>
@@ -10558,7 +10559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>114</v>
       </c>
@@ -10590,7 +10591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>114</v>
       </c>
@@ -11192,7 +11193,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>122</v>
       </c>
@@ -11224,7 +11225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>122</v>
       </c>
@@ -11256,7 +11257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>123</v>
       </c>
@@ -11288,7 +11289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>123</v>
       </c>
@@ -11320,7 +11321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>123</v>
       </c>
@@ -11352,7 +11353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>124</v>
       </c>
@@ -11384,7 +11385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>124</v>
       </c>
@@ -11416,7 +11417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>124</v>
       </c>
@@ -11448,7 +11449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>125</v>
       </c>
@@ -11480,7 +11481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>125</v>
       </c>
@@ -11512,7 +11513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>125</v>
       </c>
@@ -11544,7 +11545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>126</v>
       </c>
@@ -11576,7 +11577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>126</v>
       </c>
@@ -11608,7 +11609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>127</v>
       </c>
@@ -11640,7 +11641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>127</v>
       </c>
@@ -11672,7 +11673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>128</v>
       </c>
@@ -11704,7 +11705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>128</v>
       </c>
@@ -11736,7 +11737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>129</v>
       </c>
@@ -11768,7 +11769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>129</v>
       </c>
@@ -11800,7 +11801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>130</v>
       </c>
@@ -11832,7 +11833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>130</v>
       </c>
@@ -11864,7 +11865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>131</v>
       </c>
@@ -11896,7 +11897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>131</v>
       </c>
@@ -11928,7 +11929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>132</v>
       </c>
@@ -11960,7 +11961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>132</v>
       </c>
@@ -11992,7 +11993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>132</v>
       </c>
@@ -12024,7 +12025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>133</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>133</v>
       </c>
@@ -12088,7 +12089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>133</v>
       </c>
@@ -12120,7 +12121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>134</v>
       </c>
@@ -12152,7 +12153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>134</v>
       </c>
@@ -12184,7 +12185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>134</v>
       </c>
@@ -12216,7 +12217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>135</v>
       </c>
@@ -12248,7 +12249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>135</v>
       </c>
@@ -12280,7 +12281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>136</v>
       </c>
@@ -12312,7 +12313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>136</v>
       </c>
@@ -12344,7 +12345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>137</v>
       </c>
@@ -12376,7 +12377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>137</v>
       </c>
@@ -12408,7 +12409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>137</v>
       </c>
@@ -12440,7 +12441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>69</v>
       </c>
@@ -12472,7 +12473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>69</v>
       </c>
@@ -12504,7 +12505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>69</v>
       </c>
@@ -12536,7 +12537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>138</v>
       </c>
@@ -12571,7 +12572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>138</v>
       </c>
@@ -12606,7 +12607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>139</v>
       </c>
@@ -12638,7 +12639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>139</v>
       </c>
@@ -12670,7 +12671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>139</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>140</v>
       </c>
@@ -12734,7 +12735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>140</v>
       </c>
@@ -12766,7 +12767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>140</v>
       </c>
@@ -12798,7 +12799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>141</v>
       </c>
@@ -12830,7 +12831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>141</v>
       </c>
@@ -12862,7 +12863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>142</v>
       </c>
@@ -12894,7 +12895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>142</v>
       </c>
@@ -12926,7 +12927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>143</v>
       </c>
@@ -12958,7 +12959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>143</v>
       </c>
@@ -12990,7 +12991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>143</v>
       </c>
@@ -13022,7 +13023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>144</v>
       </c>
@@ -13054,7 +13055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>144</v>
       </c>
@@ -13086,7 +13087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>144</v>
       </c>
@@ -13118,7 +13119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>145</v>
       </c>
@@ -13150,7 +13151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>145</v>
       </c>
@@ -13182,7 +13183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>146</v>
       </c>
@@ -13214,7 +13215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>146</v>
       </c>
@@ -13246,7 +13247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>147</v>
       </c>
@@ -13278,7 +13279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>147</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>148</v>
       </c>
@@ -13342,7 +13343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>148</v>
       </c>
@@ -13374,7 +13375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>148</v>
       </c>
@@ -13406,7 +13407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>149</v>
       </c>
@@ -13438,7 +13439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>149</v>
       </c>
@@ -13470,7 +13471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>150</v>
       </c>
@@ -13502,7 +13503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>150</v>
       </c>
@@ -13534,7 +13535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>151</v>
       </c>
@@ -13566,7 +13567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>151</v>
       </c>
@@ -13598,7 +13599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>151</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>152</v>
       </c>
@@ -13662,7 +13663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>152</v>
       </c>
@@ -13694,7 +13695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>91</v>
       </c>
@@ -13726,7 +13727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>91</v>
       </c>
@@ -13758,7 +13759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>153</v>
       </c>
@@ -13790,7 +13791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>153</v>
       </c>
@@ -13822,7 +13823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>154</v>
       </c>
@@ -13854,7 +13855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>154</v>
       </c>
@@ -13886,7 +13887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>155</v>
       </c>
@@ -13918,7 +13919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>155</v>
       </c>
@@ -13950,7 +13951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>155</v>
       </c>
@@ -13982,7 +13983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>156</v>
       </c>
@@ -14014,7 +14015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>156</v>
       </c>
@@ -14046,7 +14047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>156</v>
       </c>
@@ -14078,7 +14079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>157</v>
       </c>
@@ -14110,7 +14111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>157</v>
       </c>
@@ -14142,7 +14143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>158</v>
       </c>
@@ -14174,7 +14175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>158</v>
       </c>
@@ -14206,7 +14207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>158</v>
       </c>
@@ -14238,7 +14239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>159</v>
       </c>
@@ -14270,7 +14271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>159</v>
       </c>
@@ -14302,7 +14303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>159</v>
       </c>
@@ -14334,7 +14335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>90</v>
       </c>
@@ -14366,7 +14367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>90</v>
       </c>
@@ -14398,7 +14399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>90</v>
       </c>
@@ -14430,7 +14431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>160</v>
       </c>
@@ -14462,7 +14463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>160</v>
       </c>
@@ -14494,7 +14495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>160</v>
       </c>
@@ -14526,7 +14527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>161</v>
       </c>
@@ -14558,7 +14559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>161</v>
       </c>
@@ -14590,7 +14591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>161</v>
       </c>
@@ -14622,7 +14623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>162</v>
       </c>
@@ -14654,7 +14655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>162</v>
       </c>
@@ -14686,7 +14687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>162</v>
       </c>
@@ -14718,7 +14719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>163</v>
       </c>
@@ -14750,7 +14751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>163</v>
       </c>
@@ -14782,7 +14783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>163</v>
       </c>
@@ -15294,7 +15295,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>31</v>
       </c>
@@ -15326,7 +15327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>31</v>
       </c>
@@ -15358,7 +15359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>31</v>
       </c>
@@ -15390,7 +15391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>31</v>
       </c>
@@ -17982,7 +17983,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>192</v>
       </c>
@@ -18011,7 +18012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>192</v>
       </c>
@@ -18040,7 +18041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>192</v>
       </c>
@@ -18069,7 +18070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>192</v>
       </c>
@@ -18098,7 +18099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>192</v>
       </c>
@@ -18127,7 +18128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>193</v>
       </c>
@@ -18156,7 +18157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>193</v>
       </c>
@@ -18185,7 +18186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>193</v>
       </c>
@@ -18214,7 +18215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>193</v>
       </c>
@@ -18243,7 +18244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>193</v>
       </c>
@@ -18592,7 +18593,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>197</v>
       </c>
@@ -18621,7 +18622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>197</v>
       </c>
@@ -18650,7 +18651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>197</v>
       </c>
@@ -18679,7 +18680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>197</v>
       </c>
@@ -18708,7 +18709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>197</v>
       </c>
@@ -18737,7 +18738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>198</v>
       </c>
@@ -18763,7 +18764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>198</v>
       </c>
@@ -18789,7 +18790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>198</v>
       </c>
@@ -18815,7 +18816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>198</v>
       </c>
@@ -18841,7 +18842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>198</v>
       </c>
@@ -18867,7 +18868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>199</v>
       </c>
@@ -18893,7 +18894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>199</v>
       </c>
@@ -18919,7 +18920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>199</v>
       </c>
@@ -18945,7 +18946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>199</v>
       </c>
@@ -18971,7 +18972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>199</v>
       </c>
@@ -18997,7 +18998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>200</v>
       </c>
@@ -19023,7 +19024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>200</v>
       </c>
@@ -19049,7 +19050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>200</v>
       </c>
@@ -19075,7 +19076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>200</v>
       </c>
@@ -19101,7 +19102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>200</v>
       </c>
@@ -19127,7 +19128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>201</v>
       </c>
@@ -19153,7 +19154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>201</v>
       </c>
@@ -19179,7 +19180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>201</v>
       </c>
@@ -19205,7 +19206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>201</v>
       </c>
@@ -19231,7 +19232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>201</v>
       </c>
@@ -19257,7 +19258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>202</v>
       </c>
@@ -19283,7 +19284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>202</v>
       </c>
@@ -19309,7 +19310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>202</v>
       </c>
@@ -19335,7 +19336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>202</v>
       </c>
@@ -19361,7 +19362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>202</v>
       </c>
@@ -19387,7 +19388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>203</v>
       </c>
@@ -19413,7 +19414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>203</v>
       </c>
@@ -19439,7 +19440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>203</v>
       </c>
@@ -19465,7 +19466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>203</v>
       </c>
@@ -19491,7 +19492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>203</v>
       </c>
@@ -19807,7 +19808,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>207</v>
       </c>
@@ -19833,7 +19834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>207</v>
       </c>
@@ -19859,7 +19860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>207</v>
       </c>
@@ -19885,7 +19886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>207</v>
       </c>
@@ -19911,7 +19912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>207</v>
       </c>
@@ -19937,7 +19938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>208</v>
       </c>
@@ -19969,7 +19970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>208</v>
       </c>
@@ -20001,7 +20002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>211</v>
       </c>
@@ -20033,7 +20034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>211</v>
       </c>
@@ -20065,7 +20066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>211</v>
       </c>
@@ -20097,7 +20098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>212</v>
       </c>
@@ -20129,7 +20130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>212</v>
       </c>
@@ -20161,7 +20162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>212</v>
       </c>
@@ -20193,7 +20194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>213</v>
       </c>
@@ -20225,7 +20226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>213</v>
       </c>
@@ -20257,7 +20258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>213</v>
       </c>
@@ -20359,7 +20360,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>216</v>
       </c>
@@ -20391,7 +20392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>216</v>
       </c>
@@ -20423,7 +20424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>216</v>
       </c>
@@ -20455,7 +20456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>217</v>
       </c>
@@ -20487,7 +20488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>217</v>
       </c>
@@ -20519,7 +20520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>218</v>
       </c>
@@ -20551,7 +20552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>218</v>
       </c>
@@ -20583,7 +20584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>87</v>
       </c>
@@ -20615,7 +20616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>87</v>
       </c>
@@ -20647,7 +20648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>87</v>
       </c>
@@ -20679,7 +20680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>219</v>
       </c>
@@ -20711,7 +20712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>219</v>
       </c>
@@ -20743,7 +20744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>220</v>
       </c>
@@ -20778,7 +20779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>220</v>
       </c>
@@ -20813,7 +20814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>226</v>
       </c>
@@ -20848,7 +20849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>226</v>
       </c>
@@ -20883,7 +20884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>227</v>
       </c>
@@ -20918,7 +20919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>227</v>
       </c>
@@ -20953,7 +20954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>228</v>
       </c>
@@ -20988,7 +20989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>228</v>
       </c>
@@ -21023,7 +21024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>229</v>
       </c>
@@ -21058,7 +21059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>229</v>
       </c>
@@ -21093,7 +21094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>230</v>
       </c>
@@ -21128,7 +21129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>230</v>
       </c>
@@ -21163,7 +21164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>231</v>
       </c>
@@ -21198,7 +21199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>231</v>
       </c>
@@ -21233,7 +21234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>232</v>
       </c>
@@ -21268,7 +21269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>232</v>
       </c>
@@ -21303,7 +21304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>233</v>
       </c>
@@ -21335,7 +21336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>233</v>
       </c>
@@ -21367,7 +21368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>234</v>
       </c>
@@ -21399,7 +21400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>234</v>
       </c>
@@ -21431,7 +21432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>234</v>
       </c>
@@ -21463,7 +21464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>235</v>
       </c>
@@ -21495,7 +21496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>235</v>
       </c>
@@ -21527,7 +21528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>235</v>
       </c>
@@ -21559,7 +21560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>236</v>
       </c>
@@ -21591,7 +21592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>236</v>
       </c>
@@ -21623,7 +21624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>236</v>
       </c>
@@ -21655,7 +21656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>237</v>
       </c>
@@ -21687,7 +21688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>237</v>
       </c>
@@ -21719,7 +21720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>237</v>
       </c>
@@ -21751,7 +21752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>238</v>
       </c>
@@ -21783,7 +21784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>238</v>
       </c>
@@ -21815,7 +21816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>239</v>
       </c>
@@ -21847,7 +21848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>239</v>
       </c>
@@ -21879,7 +21880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>239</v>
       </c>
@@ -21911,7 +21912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>237</v>
       </c>
@@ -21943,7 +21944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>237</v>
       </c>
@@ -21975,7 +21976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>237</v>
       </c>
@@ -43212,7 +43213,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L603" xr:uid="{90522540-4000-4907-AD05-D1C11ACA3E85}"/>
+  <autoFilter ref="A1:L1161" xr:uid="{90522540-4000-4907-AD05-D1C11ACA3E85}">
+    <filterColumn colId="11">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tables_ref/base_seuils.xlsx
+++ b/tables_ref/base_seuils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eptbvilaine56-my.sharepoint.com/personal/anthony_deburghrave_eptb-vilaine_fr/Documents/Documents/R_Anthony/tools4DCE/tables_ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:40009_{6CBB6F6B-8B1D-4D1F-9F2D-9EFF996294A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{88D686CB-3C89-4B0D-A1EA-33594535A625}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:40009_{6CBB6F6B-8B1D-4D1F-9F2D-9EFF996294A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{98B5757F-254D-4972-9238-06F81F581D6F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_seuils" sheetId="1" r:id="rId1"/>
@@ -2646,11 +2646,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L1161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="L246" sqref="L246"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2690,7 +2693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -8355,7 +8358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>95</v>
       </c>
@@ -8393,7 +8396,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>95</v>
       </c>
@@ -8431,7 +8434,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>95</v>
       </c>
@@ -8469,7 +8472,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>95</v>
       </c>
@@ -8507,7 +8510,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>95</v>
       </c>
@@ -8545,7 +8548,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>95</v>
       </c>
@@ -10623,7 +10626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>116</v>
       </c>
@@ -10661,7 +10664,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>116</v>
       </c>
@@ -10699,7 +10702,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>116</v>
       </c>
@@ -10737,7 +10740,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>116</v>
       </c>
@@ -10775,7 +10778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>116</v>
       </c>
@@ -10813,7 +10816,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>116</v>
       </c>
@@ -10851,7 +10854,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>116</v>
       </c>
@@ -10889,7 +10892,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>116</v>
       </c>
@@ -10927,7 +10930,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>116</v>
       </c>
@@ -10965,7 +10968,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>116</v>
       </c>
@@ -11003,7 +11006,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>116</v>
       </c>
@@ -11041,7 +11044,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>116</v>
       </c>
@@ -11079,7 +11082,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>116</v>
       </c>
@@ -11117,7 +11120,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>116</v>
       </c>
@@ -11155,7 +11158,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>116</v>
       </c>
@@ -14815,7 +14818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>164</v>
       </c>
@@ -14847,7 +14850,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>164</v>
       </c>
@@ -14879,7 +14882,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>164</v>
       </c>
@@ -14911,7 +14914,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>164</v>
       </c>
@@ -14943,7 +14946,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>164</v>
       </c>
@@ -14975,7 +14978,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>164</v>
       </c>
@@ -15007,7 +15010,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>164</v>
       </c>
@@ -15039,7 +15042,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>164</v>
       </c>
@@ -15071,7 +15074,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>164</v>
       </c>
@@ -15103,7 +15106,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>164</v>
       </c>
@@ -15135,7 +15138,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>164</v>
       </c>
@@ -15167,7 +15170,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>164</v>
       </c>
@@ -15199,7 +15202,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>164</v>
       </c>
@@ -15231,7 +15234,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>164</v>
       </c>
@@ -15263,7 +15266,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>164</v>
       </c>
@@ -15423,7 +15426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>174</v>
       </c>
@@ -15455,7 +15458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>174</v>
       </c>
@@ -15487,7 +15490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>174</v>
       </c>
@@ -15519,7 +15522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>174</v>
       </c>
@@ -15551,7 +15554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>174</v>
       </c>
@@ -15583,7 +15586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>174</v>
       </c>
@@ -15615,7 +15618,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>174</v>
       </c>
@@ -15647,7 +15650,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>174</v>
       </c>
@@ -15679,7 +15682,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>174</v>
       </c>
@@ -15711,7 +15714,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>174</v>
       </c>
@@ -15743,7 +15746,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>176</v>
       </c>
@@ -15775,7 +15778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>176</v>
       </c>
@@ -15807,7 +15810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>176</v>
       </c>
@@ -15839,7 +15842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>176</v>
       </c>
@@ -15871,7 +15874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>176</v>
       </c>
@@ -15903,7 +15906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>183</v>
       </c>
@@ -15935,7 +15938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>183</v>
       </c>
@@ -15967,7 +15970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>183</v>
       </c>
@@ -15999,7 +16002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>183</v>
       </c>
@@ -16031,7 +16034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>183</v>
       </c>
@@ -16063,7 +16066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>184</v>
       </c>
@@ -16095,7 +16098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>184</v>
       </c>
@@ -16127,7 +16130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>184</v>
       </c>
@@ -16159,7 +16162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>184</v>
       </c>
@@ -16191,7 +16194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>184</v>
       </c>
@@ -16223,7 +16226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>185</v>
       </c>
@@ -16255,7 +16258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>185</v>
       </c>
@@ -16287,7 +16290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>185</v>
       </c>
@@ -16319,7 +16322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>185</v>
       </c>
@@ -16351,7 +16354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>185</v>
       </c>
@@ -16383,7 +16386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>186</v>
       </c>
@@ -16415,7 +16418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>186</v>
       </c>
@@ -16447,7 +16450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>186</v>
       </c>
@@ -16479,7 +16482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>186</v>
       </c>
@@ -16511,7 +16514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>186</v>
       </c>
@@ -16543,7 +16546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>176</v>
       </c>
@@ -16575,7 +16578,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>176</v>
       </c>
@@ -16607,7 +16610,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>176</v>
       </c>
@@ -16639,7 +16642,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>176</v>
       </c>
@@ -16671,7 +16674,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>176</v>
       </c>
@@ -16703,7 +16706,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>183</v>
       </c>
@@ -16735,7 +16738,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>183</v>
       </c>
@@ -16767,7 +16770,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>183</v>
       </c>
@@ -16799,7 +16802,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>183</v>
       </c>
@@ -16831,7 +16834,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>183</v>
       </c>
@@ -16863,7 +16866,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>184</v>
       </c>
@@ -16895,7 +16898,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>184</v>
       </c>
@@ -16927,7 +16930,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>184</v>
       </c>
@@ -16959,7 +16962,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>184</v>
       </c>
@@ -16991,7 +16994,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>184</v>
       </c>
@@ -17023,7 +17026,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>185</v>
       </c>
@@ -17055,7 +17058,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>185</v>
       </c>
@@ -17087,7 +17090,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>185</v>
       </c>
@@ -17119,7 +17122,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>185</v>
       </c>
@@ -17151,7 +17154,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>185</v>
       </c>
@@ -17183,7 +17186,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>186</v>
       </c>
@@ -17215,7 +17218,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>186</v>
       </c>
@@ -17247,7 +17250,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>186</v>
       </c>
@@ -17279,7 +17282,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>186</v>
       </c>
@@ -17311,7 +17314,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>186</v>
       </c>
@@ -17343,7 +17346,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>164</v>
       </c>
@@ -17375,7 +17378,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>164</v>
       </c>
@@ -17407,7 +17410,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>164</v>
       </c>
@@ -17439,7 +17442,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>164</v>
       </c>
@@ -17471,7 +17474,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>164</v>
       </c>
@@ -17503,7 +17506,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>164</v>
       </c>
@@ -17535,7 +17538,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>164</v>
       </c>
@@ -17567,7 +17570,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>164</v>
       </c>
@@ -17599,7 +17602,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>164</v>
       </c>
@@ -17631,7 +17634,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>164</v>
       </c>
@@ -17663,7 +17666,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>164</v>
       </c>
@@ -17695,7 +17698,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>164</v>
       </c>
@@ -17727,7 +17730,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>164</v>
       </c>
@@ -17759,7 +17762,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>164</v>
       </c>
@@ -17791,7 +17794,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>164</v>
       </c>
@@ -17823,7 +17826,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>164</v>
       </c>
@@ -17855,7 +17858,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>164</v>
       </c>
@@ -17887,7 +17890,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>164</v>
       </c>
@@ -17919,7 +17922,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>164</v>
       </c>
@@ -17951,7 +17954,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>164</v>
       </c>
@@ -18273,7 +18276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>194</v>
       </c>
@@ -18305,7 +18308,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>194</v>
       </c>
@@ -18337,7 +18340,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>194</v>
       </c>
@@ -18369,7 +18372,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>194</v>
       </c>
@@ -18401,7 +18404,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>194</v>
       </c>
@@ -18433,7 +18436,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>194</v>
       </c>
@@ -18465,7 +18468,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>194</v>
       </c>
@@ -18497,7 +18500,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>194</v>
       </c>
@@ -18529,7 +18532,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>194</v>
       </c>
@@ -18561,7 +18564,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>194</v>
       </c>
@@ -19518,7 +19521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>204</v>
       </c>
@@ -19547,7 +19550,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>204</v>
       </c>
@@ -19576,7 +19579,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>204</v>
       </c>
@@ -19605,7 +19608,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>204</v>
       </c>
@@ -19634,7 +19637,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>204</v>
       </c>
@@ -19663,7 +19666,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>204</v>
       </c>
@@ -19692,7 +19695,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>204</v>
       </c>
@@ -19721,7 +19724,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>204</v>
       </c>
@@ -19750,7 +19753,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>204</v>
       </c>
@@ -19779,7 +19782,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>204</v>
       </c>
@@ -20290,7 +20293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>214</v>
       </c>
@@ -20325,7 +20328,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>214</v>
       </c>
@@ -22040,7 +22043,7 @@
         <v>251</v>
       </c>
       <c r="K604" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L604" t="s">
         <v>252</v>
@@ -22078,7 +22081,7 @@
         <v>251</v>
       </c>
       <c r="K605" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L605" t="s">
         <v>252</v>
@@ -22116,7 +22119,7 @@
         <v>251</v>
       </c>
       <c r="K606" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L606" t="s">
         <v>252</v>
@@ -22154,7 +22157,7 @@
         <v>251</v>
       </c>
       <c r="K607" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L607" t="s">
         <v>257</v>
@@ -22192,7 +22195,7 @@
         <v>251</v>
       </c>
       <c r="K608" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L608" t="s">
         <v>257</v>
@@ -22230,7 +22233,7 @@
         <v>251</v>
       </c>
       <c r="K609" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L609" t="s">
         <v>257</v>
@@ -22268,7 +22271,7 @@
         <v>251</v>
       </c>
       <c r="K610" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L610" t="s">
         <v>252</v>
@@ -22306,7 +22309,7 @@
         <v>251</v>
       </c>
       <c r="K611" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L611" t="s">
         <v>252</v>
@@ -22344,7 +22347,7 @@
         <v>251</v>
       </c>
       <c r="K612" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L612" t="s">
         <v>252</v>
@@ -22382,7 +22385,7 @@
         <v>251</v>
       </c>
       <c r="K613" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L613" t="s">
         <v>252</v>
@@ -22420,7 +22423,7 @@
         <v>251</v>
       </c>
       <c r="K614" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L614" t="s">
         <v>252</v>
@@ -22458,7 +22461,7 @@
         <v>251</v>
       </c>
       <c r="K615" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L615" t="s">
         <v>252</v>
@@ -22496,7 +22499,7 @@
         <v>251</v>
       </c>
       <c r="K616" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L616" t="s">
         <v>252</v>
@@ -22534,7 +22537,7 @@
         <v>251</v>
       </c>
       <c r="K617" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L617" t="s">
         <v>252</v>
@@ -22572,7 +22575,7 @@
         <v>251</v>
       </c>
       <c r="K618" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L618" t="s">
         <v>252</v>
@@ -22610,7 +22613,7 @@
         <v>251</v>
       </c>
       <c r="K619" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L619" t="s">
         <v>252</v>
@@ -22648,7 +22651,7 @@
         <v>251</v>
       </c>
       <c r="K620" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L620" t="s">
         <v>252</v>
@@ -22686,7 +22689,7 @@
         <v>251</v>
       </c>
       <c r="K621" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L621" t="s">
         <v>252</v>
@@ -22724,7 +22727,7 @@
         <v>251</v>
       </c>
       <c r="K622" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L622" t="s">
         <v>252</v>
@@ -22762,7 +22765,7 @@
         <v>251</v>
       </c>
       <c r="K623" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L623" t="s">
         <v>252</v>
@@ -22800,7 +22803,7 @@
         <v>251</v>
       </c>
       <c r="K624" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L624" t="s">
         <v>252</v>
@@ -22838,7 +22841,7 @@
         <v>251</v>
       </c>
       <c r="K625" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L625" t="s">
         <v>252</v>
@@ -22876,7 +22879,7 @@
         <v>251</v>
       </c>
       <c r="K626" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L626" t="s">
         <v>252</v>
@@ -22914,7 +22917,7 @@
         <v>251</v>
       </c>
       <c r="K627" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L627" t="s">
         <v>252</v>
@@ -22952,7 +22955,7 @@
         <v>251</v>
       </c>
       <c r="K628" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L628" t="s">
         <v>252</v>
@@ -22990,7 +22993,7 @@
         <v>251</v>
       </c>
       <c r="K629" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L629" t="s">
         <v>252</v>
@@ -23028,7 +23031,7 @@
         <v>251</v>
       </c>
       <c r="K630" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L630" t="s">
         <v>252</v>
@@ -23066,7 +23069,7 @@
         <v>251</v>
       </c>
       <c r="K631" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L631" t="s">
         <v>252</v>
@@ -23104,7 +23107,7 @@
         <v>251</v>
       </c>
       <c r="K632" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L632" t="s">
         <v>252</v>
@@ -23142,7 +23145,7 @@
         <v>251</v>
       </c>
       <c r="K633" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L633" t="s">
         <v>252</v>
@@ -23180,7 +23183,7 @@
         <v>251</v>
       </c>
       <c r="K634" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L634" t="s">
         <v>252</v>
@@ -23218,7 +23221,7 @@
         <v>251</v>
       </c>
       <c r="K635" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L635" t="s">
         <v>252</v>
@@ -23256,7 +23259,7 @@
         <v>251</v>
       </c>
       <c r="K636" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L636" t="s">
         <v>252</v>
@@ -23294,7 +23297,7 @@
         <v>251</v>
       </c>
       <c r="K637" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L637" t="s">
         <v>252</v>
@@ -23332,7 +23335,7 @@
         <v>251</v>
       </c>
       <c r="K638" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L638" t="s">
         <v>252</v>
@@ -23370,7 +23373,7 @@
         <v>251</v>
       </c>
       <c r="K639" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L639" t="s">
         <v>252</v>
@@ -23408,7 +23411,7 @@
         <v>251</v>
       </c>
       <c r="K640" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L640" t="s">
         <v>252</v>
@@ -23446,7 +23449,7 @@
         <v>251</v>
       </c>
       <c r="K641" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L641" t="s">
         <v>252</v>
@@ -23484,7 +23487,7 @@
         <v>251</v>
       </c>
       <c r="K642" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L642" t="s">
         <v>252</v>
@@ -23522,7 +23525,7 @@
         <v>251</v>
       </c>
       <c r="K643" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L643" t="s">
         <v>252</v>
@@ -23560,7 +23563,7 @@
         <v>251</v>
       </c>
       <c r="K644" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L644" t="s">
         <v>252</v>
@@ -23598,7 +23601,7 @@
         <v>251</v>
       </c>
       <c r="K645" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L645" t="s">
         <v>252</v>
@@ -23636,7 +23639,7 @@
         <v>251</v>
       </c>
       <c r="K646" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L646" t="s">
         <v>252</v>
@@ -23674,7 +23677,7 @@
         <v>251</v>
       </c>
       <c r="K647" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L647" t="s">
         <v>252</v>
@@ -23712,7 +23715,7 @@
         <v>251</v>
       </c>
       <c r="K648" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L648" t="s">
         <v>252</v>
@@ -23750,7 +23753,7 @@
         <v>251</v>
       </c>
       <c r="K649" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L649" t="s">
         <v>252</v>
@@ -23788,7 +23791,7 @@
         <v>251</v>
       </c>
       <c r="K650" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L650" t="s">
         <v>252</v>
@@ -23826,7 +23829,7 @@
         <v>251</v>
       </c>
       <c r="K651" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L651" t="s">
         <v>252</v>
@@ -23864,7 +23867,7 @@
         <v>251</v>
       </c>
       <c r="K652" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L652" t="s">
         <v>252</v>
@@ -23902,7 +23905,7 @@
         <v>251</v>
       </c>
       <c r="K653" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L653" t="s">
         <v>252</v>
@@ -23940,7 +23943,7 @@
         <v>251</v>
       </c>
       <c r="K654" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L654" t="s">
         <v>252</v>
@@ -23978,7 +23981,7 @@
         <v>251</v>
       </c>
       <c r="K655" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L655" t="s">
         <v>252</v>
@@ -24016,7 +24019,7 @@
         <v>251</v>
       </c>
       <c r="K656" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L656" t="s">
         <v>252</v>
@@ -24054,7 +24057,7 @@
         <v>251</v>
       </c>
       <c r="K657" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L657" t="s">
         <v>252</v>
@@ -24092,7 +24095,7 @@
         <v>251</v>
       </c>
       <c r="K658" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L658" t="s">
         <v>252</v>
@@ -24130,7 +24133,7 @@
         <v>251</v>
       </c>
       <c r="K659" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L659" t="s">
         <v>252</v>
@@ -24168,7 +24171,7 @@
         <v>251</v>
       </c>
       <c r="K660" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L660" t="s">
         <v>252</v>
@@ -24206,7 +24209,7 @@
         <v>251</v>
       </c>
       <c r="K661" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L661" t="s">
         <v>252</v>
@@ -24244,7 +24247,7 @@
         <v>251</v>
       </c>
       <c r="K662" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L662" t="s">
         <v>252</v>
@@ -24282,7 +24285,7 @@
         <v>251</v>
       </c>
       <c r="K663" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L663" t="s">
         <v>252</v>
@@ -24320,7 +24323,7 @@
         <v>251</v>
       </c>
       <c r="K664" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L664" t="s">
         <v>252</v>
@@ -24358,7 +24361,7 @@
         <v>251</v>
       </c>
       <c r="K665" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L665" t="s">
         <v>252</v>
@@ -24396,7 +24399,7 @@
         <v>251</v>
       </c>
       <c r="K666" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L666" t="s">
         <v>252</v>
@@ -24434,7 +24437,7 @@
         <v>251</v>
       </c>
       <c r="K667" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L667" t="s">
         <v>252</v>
@@ -24472,7 +24475,7 @@
         <v>251</v>
       </c>
       <c r="K668" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L668" t="s">
         <v>252</v>
@@ -24510,7 +24513,7 @@
         <v>251</v>
       </c>
       <c r="K669" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L669" t="s">
         <v>252</v>
@@ -24548,7 +24551,7 @@
         <v>251</v>
       </c>
       <c r="K670" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L670" t="s">
         <v>252</v>
@@ -24586,7 +24589,7 @@
         <v>251</v>
       </c>
       <c r="K671" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L671" t="s">
         <v>252</v>
@@ -24624,7 +24627,7 @@
         <v>251</v>
       </c>
       <c r="K672" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L672" t="s">
         <v>252</v>
@@ -24662,7 +24665,7 @@
         <v>251</v>
       </c>
       <c r="K673" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L673" t="s">
         <v>252</v>
@@ -24700,7 +24703,7 @@
         <v>251</v>
       </c>
       <c r="K674" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L674" t="s">
         <v>252</v>
@@ -24738,7 +24741,7 @@
         <v>251</v>
       </c>
       <c r="K675" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L675" t="s">
         <v>252</v>
@@ -24776,7 +24779,7 @@
         <v>251</v>
       </c>
       <c r="K676" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L676" t="s">
         <v>252</v>
@@ -24814,7 +24817,7 @@
         <v>251</v>
       </c>
       <c r="K677" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L677" t="s">
         <v>252</v>
@@ -24852,7 +24855,7 @@
         <v>251</v>
       </c>
       <c r="K678" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L678" t="s">
         <v>252</v>
@@ -24890,7 +24893,7 @@
         <v>251</v>
       </c>
       <c r="K679" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L679" t="s">
         <v>252</v>
@@ -24928,7 +24931,7 @@
         <v>251</v>
       </c>
       <c r="K680" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L680" t="s">
         <v>252</v>
@@ -24966,7 +24969,7 @@
         <v>251</v>
       </c>
       <c r="K681" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L681" t="s">
         <v>252</v>
@@ -25004,7 +25007,7 @@
         <v>251</v>
       </c>
       <c r="K682" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L682" t="s">
         <v>252</v>
@@ -25042,7 +25045,7 @@
         <v>251</v>
       </c>
       <c r="K683" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L683" t="s">
         <v>252</v>
@@ -25080,7 +25083,7 @@
         <v>251</v>
       </c>
       <c r="K684" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L684" t="s">
         <v>252</v>
@@ -25118,7 +25121,7 @@
         <v>251</v>
       </c>
       <c r="K685" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L685" t="s">
         <v>252</v>
@@ -25156,7 +25159,7 @@
         <v>251</v>
       </c>
       <c r="K686" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L686" t="s">
         <v>252</v>
@@ -25194,7 +25197,7 @@
         <v>251</v>
       </c>
       <c r="K687" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L687" t="s">
         <v>252</v>
@@ -25232,7 +25235,7 @@
         <v>251</v>
       </c>
       <c r="K688" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L688" t="s">
         <v>252</v>
@@ -25270,7 +25273,7 @@
         <v>251</v>
       </c>
       <c r="K689" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L689" t="s">
         <v>252</v>
@@ -25308,7 +25311,7 @@
         <v>251</v>
       </c>
       <c r="K690" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L690" t="s">
         <v>252</v>
@@ -25346,7 +25349,7 @@
         <v>251</v>
       </c>
       <c r="K691" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L691" t="s">
         <v>252</v>
@@ -25384,7 +25387,7 @@
         <v>251</v>
       </c>
       <c r="K692" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L692" t="s">
         <v>252</v>
@@ -25422,7 +25425,7 @@
         <v>251</v>
       </c>
       <c r="K693" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L693" t="s">
         <v>252</v>
@@ -25460,7 +25463,7 @@
         <v>251</v>
       </c>
       <c r="K694" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L694" t="s">
         <v>252</v>
@@ -25498,7 +25501,7 @@
         <v>251</v>
       </c>
       <c r="K695" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L695" t="s">
         <v>252</v>
@@ -25536,7 +25539,7 @@
         <v>251</v>
       </c>
       <c r="K696" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L696" t="s">
         <v>252</v>
@@ -25574,7 +25577,7 @@
         <v>251</v>
       </c>
       <c r="K697" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L697" t="s">
         <v>252</v>
@@ -25612,7 +25615,7 @@
         <v>251</v>
       </c>
       <c r="K698" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L698" t="s">
         <v>252</v>
@@ -25650,7 +25653,7 @@
         <v>251</v>
       </c>
       <c r="K699" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L699" t="s">
         <v>252</v>
@@ -25688,7 +25691,7 @@
         <v>251</v>
       </c>
       <c r="K700" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L700" t="s">
         <v>252</v>
@@ -25726,7 +25729,7 @@
         <v>251</v>
       </c>
       <c r="K701" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L701" t="s">
         <v>252</v>
@@ -25764,7 +25767,7 @@
         <v>251</v>
       </c>
       <c r="K702" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L702" t="s">
         <v>252</v>
@@ -25802,7 +25805,7 @@
         <v>251</v>
       </c>
       <c r="K703" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L703" t="s">
         <v>252</v>
@@ -25840,7 +25843,7 @@
         <v>251</v>
       </c>
       <c r="K704" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L704" t="s">
         <v>252</v>
@@ -25878,7 +25881,7 @@
         <v>251</v>
       </c>
       <c r="K705" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L705" t="s">
         <v>252</v>
@@ -25916,7 +25919,7 @@
         <v>251</v>
       </c>
       <c r="K706" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L706" t="s">
         <v>257</v>
@@ -25954,7 +25957,7 @@
         <v>251</v>
       </c>
       <c r="K707" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L707" t="s">
         <v>257</v>
@@ -25992,7 +25995,7 @@
         <v>251</v>
       </c>
       <c r="K708" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L708" t="s">
         <v>257</v>
@@ -26030,7 +26033,7 @@
         <v>251</v>
       </c>
       <c r="K709" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L709" t="s">
         <v>252</v>
@@ -26068,7 +26071,7 @@
         <v>251</v>
       </c>
       <c r="K710" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L710" t="s">
         <v>252</v>
@@ -26106,7 +26109,7 @@
         <v>251</v>
       </c>
       <c r="K711" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L711" t="s">
         <v>252</v>
@@ -26144,7 +26147,7 @@
         <v>251</v>
       </c>
       <c r="K712" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L712" t="s">
         <v>252</v>
@@ -26182,7 +26185,7 @@
         <v>251</v>
       </c>
       <c r="K713" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L713" t="s">
         <v>252</v>
@@ -26220,7 +26223,7 @@
         <v>251</v>
       </c>
       <c r="K714" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L714" t="s">
         <v>252</v>
@@ -26258,7 +26261,7 @@
         <v>251</v>
       </c>
       <c r="K715" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L715" t="s">
         <v>257</v>
@@ -26296,7 +26299,7 @@
         <v>251</v>
       </c>
       <c r="K716" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L716" t="s">
         <v>257</v>
@@ -26334,7 +26337,7 @@
         <v>251</v>
       </c>
       <c r="K717" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L717" t="s">
         <v>257</v>
@@ -26372,7 +26375,7 @@
         <v>251</v>
       </c>
       <c r="K718" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L718" t="s">
         <v>252</v>
@@ -26410,7 +26413,7 @@
         <v>251</v>
       </c>
       <c r="K719" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L719" t="s">
         <v>252</v>
@@ -26448,7 +26451,7 @@
         <v>251</v>
       </c>
       <c r="K720" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L720" t="s">
         <v>252</v>
@@ -26486,7 +26489,7 @@
         <v>251</v>
       </c>
       <c r="K721" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L721" t="s">
         <v>252</v>
@@ -26524,7 +26527,7 @@
         <v>251</v>
       </c>
       <c r="K722" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L722" t="s">
         <v>252</v>
@@ -26562,7 +26565,7 @@
         <v>251</v>
       </c>
       <c r="K723" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L723" t="s">
         <v>252</v>
@@ -26600,7 +26603,7 @@
         <v>251</v>
       </c>
       <c r="K724" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L724" t="s">
         <v>252</v>
@@ -26638,7 +26641,7 @@
         <v>251</v>
       </c>
       <c r="K725" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L725" t="s">
         <v>252</v>
@@ -26676,7 +26679,7 @@
         <v>251</v>
       </c>
       <c r="K726" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L726" t="s">
         <v>252</v>
@@ -26714,7 +26717,7 @@
         <v>251</v>
       </c>
       <c r="K727" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L727" t="s">
         <v>252</v>
@@ -26752,7 +26755,7 @@
         <v>251</v>
       </c>
       <c r="K728" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L728" t="s">
         <v>252</v>
@@ -26790,7 +26793,7 @@
         <v>251</v>
       </c>
       <c r="K729" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L729" t="s">
         <v>252</v>
@@ -26828,7 +26831,7 @@
         <v>251</v>
       </c>
       <c r="K730" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L730" t="s">
         <v>252</v>
@@ -26866,7 +26869,7 @@
         <v>251</v>
       </c>
       <c r="K731" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L731" t="s">
         <v>252</v>
@@ -26904,7 +26907,7 @@
         <v>251</v>
       </c>
       <c r="K732" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L732" t="s">
         <v>252</v>
@@ -26942,7 +26945,7 @@
         <v>251</v>
       </c>
       <c r="K733" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L733" t="s">
         <v>252</v>
@@ -26980,7 +26983,7 @@
         <v>251</v>
       </c>
       <c r="K734" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L734" t="s">
         <v>252</v>
@@ -27018,7 +27021,7 @@
         <v>251</v>
       </c>
       <c r="K735" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L735" t="s">
         <v>252</v>
@@ -27056,7 +27059,7 @@
         <v>251</v>
       </c>
       <c r="K736" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L736" t="s">
         <v>252</v>
@@ -27094,7 +27097,7 @@
         <v>251</v>
       </c>
       <c r="K737" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L737" t="s">
         <v>252</v>
@@ -27132,7 +27135,7 @@
         <v>251</v>
       </c>
       <c r="K738" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L738" t="s">
         <v>252</v>
@@ -27170,7 +27173,7 @@
         <v>251</v>
       </c>
       <c r="K739" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L739" t="s">
         <v>252</v>
@@ -27208,7 +27211,7 @@
         <v>251</v>
       </c>
       <c r="K740" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L740" t="s">
         <v>252</v>
@@ -27246,7 +27249,7 @@
         <v>251</v>
       </c>
       <c r="K741" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L741" t="s">
         <v>252</v>
@@ -27284,7 +27287,7 @@
         <v>251</v>
       </c>
       <c r="K742" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L742" t="s">
         <v>252</v>
@@ -27322,7 +27325,7 @@
         <v>251</v>
       </c>
       <c r="K743" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L743" t="s">
         <v>252</v>
@@ -27360,7 +27363,7 @@
         <v>251</v>
       </c>
       <c r="K744" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L744" t="s">
         <v>252</v>
@@ -27398,7 +27401,7 @@
         <v>251</v>
       </c>
       <c r="K745" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L745" t="s">
         <v>252</v>
@@ -27436,7 +27439,7 @@
         <v>251</v>
       </c>
       <c r="K746" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L746" t="s">
         <v>252</v>
@@ -27474,7 +27477,7 @@
         <v>251</v>
       </c>
       <c r="K747" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L747" t="s">
         <v>252</v>
@@ -27512,7 +27515,7 @@
         <v>251</v>
       </c>
       <c r="K748" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L748" t="s">
         <v>252</v>
@@ -27550,7 +27553,7 @@
         <v>251</v>
       </c>
       <c r="K749" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L749" t="s">
         <v>252</v>
@@ -27588,7 +27591,7 @@
         <v>251</v>
       </c>
       <c r="K750" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L750" t="s">
         <v>252</v>
@@ -27626,7 +27629,7 @@
         <v>251</v>
       </c>
       <c r="K751" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L751" t="s">
         <v>252</v>
@@ -27664,7 +27667,7 @@
         <v>251</v>
       </c>
       <c r="K752" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L752" t="s">
         <v>252</v>
@@ -27702,7 +27705,7 @@
         <v>251</v>
       </c>
       <c r="K753" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L753" t="s">
         <v>252</v>
@@ -27740,7 +27743,7 @@
         <v>251</v>
       </c>
       <c r="K754" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L754" t="s">
         <v>252</v>
@@ -27778,7 +27781,7 @@
         <v>251</v>
       </c>
       <c r="K755" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L755" t="s">
         <v>252</v>
@@ -27816,7 +27819,7 @@
         <v>251</v>
       </c>
       <c r="K756" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L756" t="s">
         <v>252</v>
@@ -27854,7 +27857,7 @@
         <v>251</v>
       </c>
       <c r="K757" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L757" t="s">
         <v>257</v>
@@ -27892,7 +27895,7 @@
         <v>251</v>
       </c>
       <c r="K758" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L758" t="s">
         <v>257</v>
@@ -27930,7 +27933,7 @@
         <v>251</v>
       </c>
       <c r="K759" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L759" t="s">
         <v>257</v>
@@ -27968,7 +27971,7 @@
         <v>251</v>
       </c>
       <c r="K760" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L760" t="s">
         <v>252</v>
@@ -28006,7 +28009,7 @@
         <v>251</v>
       </c>
       <c r="K761" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L761" t="s">
         <v>252</v>
@@ -28044,7 +28047,7 @@
         <v>251</v>
       </c>
       <c r="K762" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L762" t="s">
         <v>252</v>
@@ -28082,7 +28085,7 @@
         <v>251</v>
       </c>
       <c r="K763" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L763" t="s">
         <v>252</v>
@@ -28120,7 +28123,7 @@
         <v>251</v>
       </c>
       <c r="K764" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L764" t="s">
         <v>252</v>
@@ -28158,7 +28161,7 @@
         <v>251</v>
       </c>
       <c r="K765" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L765" t="s">
         <v>252</v>
@@ -28196,7 +28199,7 @@
         <v>251</v>
       </c>
       <c r="K766" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L766" t="s">
         <v>252</v>
@@ -28234,7 +28237,7 @@
         <v>251</v>
       </c>
       <c r="K767" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L767" t="s">
         <v>252</v>
@@ -28272,7 +28275,7 @@
         <v>251</v>
       </c>
       <c r="K768" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L768" t="s">
         <v>252</v>
@@ -28310,7 +28313,7 @@
         <v>251</v>
       </c>
       <c r="K769" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L769" t="s">
         <v>252</v>
@@ -28348,7 +28351,7 @@
         <v>251</v>
       </c>
       <c r="K770" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L770" t="s">
         <v>252</v>
@@ -28386,7 +28389,7 @@
         <v>251</v>
       </c>
       <c r="K771" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L771" t="s">
         <v>252</v>
@@ -28424,7 +28427,7 @@
         <v>251</v>
       </c>
       <c r="K772" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L772" t="s">
         <v>252</v>
@@ -28462,7 +28465,7 @@
         <v>251</v>
       </c>
       <c r="K773" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L773" t="s">
         <v>252</v>
@@ -28500,7 +28503,7 @@
         <v>251</v>
       </c>
       <c r="K774" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L774" t="s">
         <v>252</v>
@@ -28538,7 +28541,7 @@
         <v>251</v>
       </c>
       <c r="K775" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L775" t="s">
         <v>252</v>
@@ -28576,7 +28579,7 @@
         <v>251</v>
       </c>
       <c r="K776" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L776" t="s">
         <v>252</v>
@@ -28614,7 +28617,7 @@
         <v>251</v>
       </c>
       <c r="K777" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L777" t="s">
         <v>252</v>
@@ -28652,7 +28655,7 @@
         <v>251</v>
       </c>
       <c r="K778" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L778" t="s">
         <v>252</v>
@@ -28690,7 +28693,7 @@
         <v>251</v>
       </c>
       <c r="K779" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L779" t="s">
         <v>252</v>
@@ -28728,7 +28731,7 @@
         <v>251</v>
       </c>
       <c r="K780" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L780" t="s">
         <v>252</v>
@@ -28766,7 +28769,7 @@
         <v>251</v>
       </c>
       <c r="K781" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L781" t="s">
         <v>252</v>
@@ -28804,7 +28807,7 @@
         <v>251</v>
       </c>
       <c r="K782" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L782" t="s">
         <v>252</v>
@@ -28842,7 +28845,7 @@
         <v>251</v>
       </c>
       <c r="K783" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L783" t="s">
         <v>252</v>
@@ -28880,7 +28883,7 @@
         <v>251</v>
       </c>
       <c r="K784" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L784" t="s">
         <v>252</v>
@@ -28918,7 +28921,7 @@
         <v>251</v>
       </c>
       <c r="K785" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L785" t="s">
         <v>252</v>
@@ -28956,7 +28959,7 @@
         <v>251</v>
       </c>
       <c r="K786" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L786" t="s">
         <v>252</v>
@@ -28994,7 +28997,7 @@
         <v>251</v>
       </c>
       <c r="K787" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L787" t="s">
         <v>252</v>
@@ -29032,7 +29035,7 @@
         <v>251</v>
       </c>
       <c r="K788" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L788" t="s">
         <v>252</v>
@@ -29070,7 +29073,7 @@
         <v>251</v>
       </c>
       <c r="K789" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L789" t="s">
         <v>252</v>
@@ -29108,7 +29111,7 @@
         <v>251</v>
       </c>
       <c r="K790" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L790" t="s">
         <v>252</v>
@@ -29146,7 +29149,7 @@
         <v>251</v>
       </c>
       <c r="K791" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L791" t="s">
         <v>252</v>
@@ -29184,7 +29187,7 @@
         <v>251</v>
       </c>
       <c r="K792" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L792" t="s">
         <v>252</v>
@@ -29222,7 +29225,7 @@
         <v>251</v>
       </c>
       <c r="K793" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L793" t="s">
         <v>252</v>
@@ -29260,7 +29263,7 @@
         <v>251</v>
       </c>
       <c r="K794" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L794" t="s">
         <v>252</v>
@@ -29298,7 +29301,7 @@
         <v>251</v>
       </c>
       <c r="K795" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L795" t="s">
         <v>252</v>
@@ -29336,7 +29339,7 @@
         <v>251</v>
       </c>
       <c r="K796" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L796" t="s">
         <v>252</v>
@@ -29374,7 +29377,7 @@
         <v>251</v>
       </c>
       <c r="K797" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L797" t="s">
         <v>252</v>
@@ -29412,7 +29415,7 @@
         <v>251</v>
       </c>
       <c r="K798" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L798" t="s">
         <v>252</v>
@@ -29450,7 +29453,7 @@
         <v>251</v>
       </c>
       <c r="K799" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L799" t="s">
         <v>252</v>
@@ -29488,7 +29491,7 @@
         <v>251</v>
       </c>
       <c r="K800" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L800" t="s">
         <v>252</v>
@@ -29526,7 +29529,7 @@
         <v>251</v>
       </c>
       <c r="K801" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L801" t="s">
         <v>252</v>
@@ -29564,7 +29567,7 @@
         <v>251</v>
       </c>
       <c r="K802" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L802" t="s">
         <v>252</v>
@@ -29602,7 +29605,7 @@
         <v>251</v>
       </c>
       <c r="K803" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L803" t="s">
         <v>252</v>
@@ -29640,7 +29643,7 @@
         <v>251</v>
       </c>
       <c r="K804" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L804" t="s">
         <v>252</v>
@@ -29678,7 +29681,7 @@
         <v>251</v>
       </c>
       <c r="K805" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L805" t="s">
         <v>252</v>
@@ -29716,7 +29719,7 @@
         <v>251</v>
       </c>
       <c r="K806" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L806" t="s">
         <v>252</v>
@@ -29754,7 +29757,7 @@
         <v>251</v>
       </c>
       <c r="K807" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L807" t="s">
         <v>252</v>
@@ -29792,7 +29795,7 @@
         <v>251</v>
       </c>
       <c r="K808" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L808" t="s">
         <v>252</v>
@@ -29830,7 +29833,7 @@
         <v>251</v>
       </c>
       <c r="K809" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L809" t="s">
         <v>252</v>
@@ -29868,7 +29871,7 @@
         <v>251</v>
       </c>
       <c r="K810" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L810" t="s">
         <v>252</v>
@@ -29906,7 +29909,7 @@
         <v>251</v>
       </c>
       <c r="K811" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L811" t="s">
         <v>252</v>
@@ -29944,7 +29947,7 @@
         <v>251</v>
       </c>
       <c r="K812" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L812" t="s">
         <v>252</v>
@@ -29982,7 +29985,7 @@
         <v>251</v>
       </c>
       <c r="K813" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L813" t="s">
         <v>252</v>
@@ -30020,7 +30023,7 @@
         <v>251</v>
       </c>
       <c r="K814" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L814" t="s">
         <v>252</v>
@@ -30058,7 +30061,7 @@
         <v>251</v>
       </c>
       <c r="K815" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L815" t="s">
         <v>252</v>
@@ -30096,7 +30099,7 @@
         <v>251</v>
       </c>
       <c r="K816" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L816" t="s">
         <v>252</v>
@@ -30134,7 +30137,7 @@
         <v>251</v>
       </c>
       <c r="K817" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L817" t="s">
         <v>252</v>
@@ -30172,7 +30175,7 @@
         <v>251</v>
       </c>
       <c r="K818" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L818" t="s">
         <v>252</v>
@@ -30210,7 +30213,7 @@
         <v>251</v>
       </c>
       <c r="K819" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L819" t="s">
         <v>252</v>
@@ -30248,7 +30251,7 @@
         <v>251</v>
       </c>
       <c r="K820" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L820" t="s">
         <v>252</v>
@@ -30286,7 +30289,7 @@
         <v>251</v>
       </c>
       <c r="K821" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L821" t="s">
         <v>252</v>
@@ -30324,7 +30327,7 @@
         <v>251</v>
       </c>
       <c r="K822" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L822" t="s">
         <v>252</v>
@@ -30362,7 +30365,7 @@
         <v>251</v>
       </c>
       <c r="K823" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L823" t="s">
         <v>252</v>
@@ -30400,7 +30403,7 @@
         <v>251</v>
       </c>
       <c r="K824" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L824" t="s">
         <v>252</v>
@@ -30438,7 +30441,7 @@
         <v>251</v>
       </c>
       <c r="K825" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L825" t="s">
         <v>252</v>
@@ -30476,7 +30479,7 @@
         <v>251</v>
       </c>
       <c r="K826" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L826" t="s">
         <v>252</v>
@@ -30514,7 +30517,7 @@
         <v>251</v>
       </c>
       <c r="K827" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L827" t="s">
         <v>252</v>
@@ -30552,7 +30555,7 @@
         <v>251</v>
       </c>
       <c r="K828" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L828" t="s">
         <v>252</v>
@@ -30590,7 +30593,7 @@
         <v>251</v>
       </c>
       <c r="K829" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L829" t="s">
         <v>252</v>
@@ -30628,7 +30631,7 @@
         <v>251</v>
       </c>
       <c r="K830" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L830" t="s">
         <v>252</v>
@@ -30666,7 +30669,7 @@
         <v>251</v>
       </c>
       <c r="K831" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L831" t="s">
         <v>252</v>
@@ -30704,7 +30707,7 @@
         <v>251</v>
       </c>
       <c r="K832" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L832" t="s">
         <v>252</v>
@@ -30742,7 +30745,7 @@
         <v>251</v>
       </c>
       <c r="K833" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L833" t="s">
         <v>252</v>
@@ -30780,7 +30783,7 @@
         <v>251</v>
       </c>
       <c r="K834" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L834" t="s">
         <v>252</v>
@@ -30818,7 +30821,7 @@
         <v>251</v>
       </c>
       <c r="K835" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L835" t="s">
         <v>252</v>
@@ -30856,7 +30859,7 @@
         <v>251</v>
       </c>
       <c r="K836" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L836" t="s">
         <v>252</v>
@@ -30894,7 +30897,7 @@
         <v>251</v>
       </c>
       <c r="K837" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L837" t="s">
         <v>252</v>
@@ -30932,7 +30935,7 @@
         <v>251</v>
       </c>
       <c r="K838" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L838" t="s">
         <v>252</v>
@@ -30970,7 +30973,7 @@
         <v>251</v>
       </c>
       <c r="K839" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L839" t="s">
         <v>252</v>
@@ -31008,7 +31011,7 @@
         <v>251</v>
       </c>
       <c r="K840" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L840" t="s">
         <v>252</v>
@@ -31046,7 +31049,7 @@
         <v>251</v>
       </c>
       <c r="K841" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L841" t="s">
         <v>252</v>
@@ -31084,7 +31087,7 @@
         <v>251</v>
       </c>
       <c r="K842" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L842" t="s">
         <v>252</v>
@@ -31122,7 +31125,7 @@
         <v>251</v>
       </c>
       <c r="K843" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L843" t="s">
         <v>252</v>
@@ -31160,7 +31163,7 @@
         <v>251</v>
       </c>
       <c r="K844" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L844" t="s">
         <v>252</v>
@@ -31198,7 +31201,7 @@
         <v>251</v>
       </c>
       <c r="K845" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L845" t="s">
         <v>252</v>
@@ -31236,7 +31239,7 @@
         <v>251</v>
       </c>
       <c r="K846" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L846" t="s">
         <v>252</v>
@@ -31274,7 +31277,7 @@
         <v>251</v>
       </c>
       <c r="K847" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L847" t="s">
         <v>252</v>
@@ -31312,7 +31315,7 @@
         <v>251</v>
       </c>
       <c r="K848" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L848" t="s">
         <v>252</v>
@@ -31350,7 +31353,7 @@
         <v>251</v>
       </c>
       <c r="K849" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L849" t="s">
         <v>252</v>
@@ -31388,7 +31391,7 @@
         <v>251</v>
       </c>
       <c r="K850" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L850" t="s">
         <v>252</v>
@@ -31426,7 +31429,7 @@
         <v>251</v>
       </c>
       <c r="K851" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L851" t="s">
         <v>252</v>
@@ -31464,7 +31467,7 @@
         <v>251</v>
       </c>
       <c r="K852" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L852" t="s">
         <v>252</v>
@@ -31502,7 +31505,7 @@
         <v>251</v>
       </c>
       <c r="K853" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L853" t="s">
         <v>252</v>
@@ -31540,7 +31543,7 @@
         <v>251</v>
       </c>
       <c r="K854" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L854" t="s">
         <v>252</v>
@@ -31578,7 +31581,7 @@
         <v>251</v>
       </c>
       <c r="K855" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L855" t="s">
         <v>252</v>
@@ -31616,7 +31619,7 @@
         <v>251</v>
       </c>
       <c r="K856" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L856" t="s">
         <v>252</v>
@@ -31654,7 +31657,7 @@
         <v>251</v>
       </c>
       <c r="K857" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L857" t="s">
         <v>252</v>
@@ -31692,7 +31695,7 @@
         <v>251</v>
       </c>
       <c r="K858" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L858" t="s">
         <v>252</v>
@@ -31730,7 +31733,7 @@
         <v>251</v>
       </c>
       <c r="K859" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L859" t="s">
         <v>252</v>
@@ -31768,7 +31771,7 @@
         <v>251</v>
       </c>
       <c r="K860" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L860" t="s">
         <v>252</v>
@@ -31806,7 +31809,7 @@
         <v>251</v>
       </c>
       <c r="K861" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L861" t="s">
         <v>252</v>
@@ -31844,7 +31847,7 @@
         <v>251</v>
       </c>
       <c r="K862" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L862" t="s">
         <v>252</v>
@@ -31882,7 +31885,7 @@
         <v>251</v>
       </c>
       <c r="K863" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L863" t="s">
         <v>252</v>
@@ -31920,7 +31923,7 @@
         <v>251</v>
       </c>
       <c r="K864" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L864" t="s">
         <v>252</v>
@@ -31958,7 +31961,7 @@
         <v>251</v>
       </c>
       <c r="K865" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L865" t="s">
         <v>252</v>
@@ -31996,7 +31999,7 @@
         <v>251</v>
       </c>
       <c r="K866" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L866" t="s">
         <v>252</v>
@@ -32034,7 +32037,7 @@
         <v>251</v>
       </c>
       <c r="K867" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L867" t="s">
         <v>252</v>
@@ -32072,7 +32075,7 @@
         <v>251</v>
       </c>
       <c r="K868" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L868" t="s">
         <v>252</v>
@@ -32110,7 +32113,7 @@
         <v>251</v>
       </c>
       <c r="K869" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L869" t="s">
         <v>252</v>
@@ -32148,7 +32151,7 @@
         <v>251</v>
       </c>
       <c r="K870" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L870" t="s">
         <v>252</v>
@@ -32186,7 +32189,7 @@
         <v>251</v>
       </c>
       <c r="K871" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L871" t="s">
         <v>257</v>
@@ -32224,7 +32227,7 @@
         <v>251</v>
       </c>
       <c r="K872" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L872" t="s">
         <v>257</v>
@@ -32262,7 +32265,7 @@
         <v>251</v>
       </c>
       <c r="K873" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L873" t="s">
         <v>257</v>
@@ -32300,7 +32303,7 @@
         <v>251</v>
       </c>
       <c r="K874" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L874" t="s">
         <v>252</v>
@@ -32338,7 +32341,7 @@
         <v>251</v>
       </c>
       <c r="K875" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L875" t="s">
         <v>252</v>
@@ -32376,7 +32379,7 @@
         <v>251</v>
       </c>
       <c r="K876" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L876" t="s">
         <v>252</v>
@@ -32414,7 +32417,7 @@
         <v>251</v>
       </c>
       <c r="K877" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L877" t="s">
         <v>252</v>
@@ -32452,7 +32455,7 @@
         <v>251</v>
       </c>
       <c r="K878" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L878" t="s">
         <v>252</v>
@@ -32490,7 +32493,7 @@
         <v>251</v>
       </c>
       <c r="K879" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L879" t="s">
         <v>252</v>
@@ -32528,7 +32531,7 @@
         <v>251</v>
       </c>
       <c r="K880" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L880" t="s">
         <v>252</v>
@@ -32566,7 +32569,7 @@
         <v>251</v>
       </c>
       <c r="K881" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L881" t="s">
         <v>252</v>
@@ -32604,7 +32607,7 @@
         <v>251</v>
       </c>
       <c r="K882" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L882" t="s">
         <v>252</v>
@@ -32642,7 +32645,7 @@
         <v>251</v>
       </c>
       <c r="K883" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L883" t="s">
         <v>252</v>
@@ -32680,7 +32683,7 @@
         <v>251</v>
       </c>
       <c r="K884" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L884" t="s">
         <v>252</v>
@@ -32718,7 +32721,7 @@
         <v>251</v>
       </c>
       <c r="K885" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L885" t="s">
         <v>252</v>
@@ -32756,7 +32759,7 @@
         <v>251</v>
       </c>
       <c r="K886" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L886" t="s">
         <v>257</v>
@@ -32794,7 +32797,7 @@
         <v>251</v>
       </c>
       <c r="K887" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L887" t="s">
         <v>257</v>
@@ -32832,7 +32835,7 @@
         <v>251</v>
       </c>
       <c r="K888" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L888" t="s">
         <v>257</v>
@@ -32870,7 +32873,7 @@
         <v>251</v>
       </c>
       <c r="K889" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L889" t="s">
         <v>252</v>
@@ -32908,7 +32911,7 @@
         <v>251</v>
       </c>
       <c r="K890" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L890" t="s">
         <v>252</v>
@@ -32946,7 +32949,7 @@
         <v>251</v>
       </c>
       <c r="K891" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L891" t="s">
         <v>252</v>
@@ -32984,7 +32987,7 @@
         <v>251</v>
       </c>
       <c r="K892" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L892" t="s">
         <v>252</v>
@@ -33022,7 +33025,7 @@
         <v>251</v>
       </c>
       <c r="K893" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L893" t="s">
         <v>252</v>
@@ -33060,7 +33063,7 @@
         <v>251</v>
       </c>
       <c r="K894" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L894" t="s">
         <v>252</v>
@@ -33098,7 +33101,7 @@
         <v>251</v>
       </c>
       <c r="K895" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L895" t="s">
         <v>252</v>
@@ -33136,7 +33139,7 @@
         <v>251</v>
       </c>
       <c r="K896" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L896" t="s">
         <v>252</v>
@@ -33174,7 +33177,7 @@
         <v>251</v>
       </c>
       <c r="K897" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L897" t="s">
         <v>252</v>
@@ -33212,7 +33215,7 @@
         <v>251</v>
       </c>
       <c r="K898" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L898" t="s">
         <v>252</v>
@@ -33250,7 +33253,7 @@
         <v>251</v>
       </c>
       <c r="K899" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L899" t="s">
         <v>252</v>
@@ -33288,7 +33291,7 @@
         <v>251</v>
       </c>
       <c r="K900" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L900" t="s">
         <v>252</v>
@@ -33326,7 +33329,7 @@
         <v>251</v>
       </c>
       <c r="K901" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L901" t="s">
         <v>257</v>
@@ -33364,7 +33367,7 @@
         <v>251</v>
       </c>
       <c r="K902" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L902" t="s">
         <v>257</v>
@@ -33402,7 +33405,7 @@
         <v>251</v>
       </c>
       <c r="K903" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L903" t="s">
         <v>257</v>
@@ -33440,7 +33443,7 @@
         <v>251</v>
       </c>
       <c r="K904" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L904" t="s">
         <v>252</v>
@@ -33478,7 +33481,7 @@
         <v>251</v>
       </c>
       <c r="K905" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L905" t="s">
         <v>252</v>
@@ -33516,7 +33519,7 @@
         <v>251</v>
       </c>
       <c r="K906" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L906" t="s">
         <v>252</v>
@@ -33554,7 +33557,7 @@
         <v>251</v>
       </c>
       <c r="K907" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L907" t="s">
         <v>252</v>
@@ -33592,7 +33595,7 @@
         <v>251</v>
       </c>
       <c r="K908" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L908" t="s">
         <v>252</v>
@@ -33630,7 +33633,7 @@
         <v>251</v>
       </c>
       <c r="K909" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L909" t="s">
         <v>252</v>
@@ -33668,7 +33671,7 @@
         <v>251</v>
       </c>
       <c r="K910" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L910" t="s">
         <v>252</v>
@@ -33706,7 +33709,7 @@
         <v>251</v>
       </c>
       <c r="K911" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L911" t="s">
         <v>252</v>
@@ -33744,7 +33747,7 @@
         <v>251</v>
       </c>
       <c r="K912" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L912" t="s">
         <v>252</v>
@@ -33782,7 +33785,7 @@
         <v>251</v>
       </c>
       <c r="K913" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L913" t="s">
         <v>252</v>
@@ -33820,7 +33823,7 @@
         <v>251</v>
       </c>
       <c r="K914" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L914" t="s">
         <v>252</v>
@@ -33858,7 +33861,7 @@
         <v>251</v>
       </c>
       <c r="K915" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L915" t="s">
         <v>252</v>
@@ -33896,7 +33899,7 @@
         <v>251</v>
       </c>
       <c r="K916" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L916" t="s">
         <v>252</v>
@@ -33934,7 +33937,7 @@
         <v>251</v>
       </c>
       <c r="K917" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L917" t="s">
         <v>252</v>
@@ -33972,7 +33975,7 @@
         <v>251</v>
       </c>
       <c r="K918" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L918" t="s">
         <v>252</v>
@@ -34010,7 +34013,7 @@
         <v>251</v>
       </c>
       <c r="K919" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L919" t="s">
         <v>252</v>
@@ -34048,7 +34051,7 @@
         <v>251</v>
       </c>
       <c r="K920" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L920" t="s">
         <v>252</v>
@@ -34086,7 +34089,7 @@
         <v>251</v>
       </c>
       <c r="K921" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L921" t="s">
         <v>252</v>
@@ -34124,7 +34127,7 @@
         <v>251</v>
       </c>
       <c r="K922" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L922" t="s">
         <v>252</v>
@@ -34162,7 +34165,7 @@
         <v>251</v>
       </c>
       <c r="K923" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L923" t="s">
         <v>252</v>
@@ -34200,7 +34203,7 @@
         <v>251</v>
       </c>
       <c r="K924" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L924" t="s">
         <v>252</v>
@@ -34238,7 +34241,7 @@
         <v>251</v>
       </c>
       <c r="K925" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L925" t="s">
         <v>252</v>
@@ -34276,7 +34279,7 @@
         <v>251</v>
       </c>
       <c r="K926" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L926" t="s">
         <v>252</v>
@@ -34314,7 +34317,7 @@
         <v>251</v>
       </c>
       <c r="K927" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L927" t="s">
         <v>252</v>
@@ -34352,7 +34355,7 @@
         <v>251</v>
       </c>
       <c r="K928" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L928" t="s">
         <v>252</v>
@@ -34390,7 +34393,7 @@
         <v>251</v>
       </c>
       <c r="K929" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L929" t="s">
         <v>252</v>
@@ -34428,7 +34431,7 @@
         <v>251</v>
       </c>
       <c r="K930" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L930" t="s">
         <v>252</v>
@@ -34466,7 +34469,7 @@
         <v>251</v>
       </c>
       <c r="K931" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L931" t="s">
         <v>257</v>
@@ -34504,7 +34507,7 @@
         <v>251</v>
       </c>
       <c r="K932" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L932" t="s">
         <v>257</v>
@@ -34542,7 +34545,7 @@
         <v>251</v>
       </c>
       <c r="K933" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L933" t="s">
         <v>257</v>
@@ -34580,7 +34583,7 @@
         <v>251</v>
       </c>
       <c r="K934" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L934" t="s">
         <v>257</v>
@@ -34618,7 +34621,7 @@
         <v>251</v>
       </c>
       <c r="K935" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L935" t="s">
         <v>257</v>
@@ -34656,7 +34659,7 @@
         <v>251</v>
       </c>
       <c r="K936" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L936" t="s">
         <v>257</v>
@@ -34694,7 +34697,7 @@
         <v>251</v>
       </c>
       <c r="K937" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L937" t="s">
         <v>257</v>
@@ -34732,7 +34735,7 @@
         <v>251</v>
       </c>
       <c r="K938" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L938" t="s">
         <v>257</v>
@@ -34770,7 +34773,7 @@
         <v>251</v>
       </c>
       <c r="K939" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L939" t="s">
         <v>257</v>
@@ -34808,7 +34811,7 @@
         <v>251</v>
       </c>
       <c r="K940" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L940" t="s">
         <v>257</v>
@@ -34846,7 +34849,7 @@
         <v>251</v>
       </c>
       <c r="K941" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L941" t="s">
         <v>257</v>
@@ -34884,7 +34887,7 @@
         <v>251</v>
       </c>
       <c r="K942" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L942" t="s">
         <v>257</v>
@@ -34922,7 +34925,7 @@
         <v>251</v>
       </c>
       <c r="K943" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L943" t="s">
         <v>257</v>
@@ -34960,7 +34963,7 @@
         <v>251</v>
       </c>
       <c r="K944" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L944" t="s">
         <v>257</v>
@@ -34998,7 +35001,7 @@
         <v>251</v>
       </c>
       <c r="K945" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L945" t="s">
         <v>257</v>
@@ -35036,7 +35039,7 @@
         <v>251</v>
       </c>
       <c r="K946" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L946" t="s">
         <v>257</v>
@@ -35074,7 +35077,7 @@
         <v>251</v>
       </c>
       <c r="K947" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L947" t="s">
         <v>257</v>
@@ -35112,7 +35115,7 @@
         <v>251</v>
       </c>
       <c r="K948" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L948" t="s">
         <v>257</v>
@@ -35150,7 +35153,7 @@
         <v>251</v>
       </c>
       <c r="K949" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L949" t="s">
         <v>257</v>
@@ -35188,7 +35191,7 @@
         <v>251</v>
       </c>
       <c r="K950" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L950" t="s">
         <v>257</v>
@@ -35226,7 +35229,7 @@
         <v>251</v>
       </c>
       <c r="K951" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L951" t="s">
         <v>257</v>
@@ -35264,7 +35267,7 @@
         <v>251</v>
       </c>
       <c r="K952" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L952" t="s">
         <v>257</v>
@@ -35302,7 +35305,7 @@
         <v>251</v>
       </c>
       <c r="K953" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L953" t="s">
         <v>257</v>
@@ -35340,7 +35343,7 @@
         <v>251</v>
       </c>
       <c r="K954" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L954" t="s">
         <v>257</v>
@@ -35378,7 +35381,7 @@
         <v>251</v>
       </c>
       <c r="K955" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L955" t="s">
         <v>252</v>
@@ -35416,7 +35419,7 @@
         <v>251</v>
       </c>
       <c r="K956" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L956" t="s">
         <v>252</v>
@@ -35454,7 +35457,7 @@
         <v>251</v>
       </c>
       <c r="K957" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L957" t="s">
         <v>252</v>
@@ -35492,7 +35495,7 @@
         <v>251</v>
       </c>
       <c r="K958" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L958" t="s">
         <v>252</v>
@@ -35530,7 +35533,7 @@
         <v>251</v>
       </c>
       <c r="K959" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L959" t="s">
         <v>252</v>
@@ -35568,7 +35571,7 @@
         <v>251</v>
       </c>
       <c r="K960" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L960" t="s">
         <v>252</v>
@@ -35606,7 +35609,7 @@
         <v>251</v>
       </c>
       <c r="K961" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L961" t="s">
         <v>257</v>
@@ -35644,7 +35647,7 @@
         <v>251</v>
       </c>
       <c r="K962" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L962" t="s">
         <v>257</v>
@@ -35682,7 +35685,7 @@
         <v>251</v>
       </c>
       <c r="K963" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L963" t="s">
         <v>257</v>
@@ -35720,7 +35723,7 @@
         <v>251</v>
       </c>
       <c r="K964" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L964" t="s">
         <v>257</v>
@@ -35758,7 +35761,7 @@
         <v>251</v>
       </c>
       <c r="K965" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L965" t="s">
         <v>257</v>
@@ -35796,7 +35799,7 @@
         <v>251</v>
       </c>
       <c r="K966" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L966" t="s">
         <v>257</v>
@@ -35834,7 +35837,7 @@
         <v>251</v>
       </c>
       <c r="K967" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L967" t="s">
         <v>252</v>
@@ -35872,7 +35875,7 @@
         <v>251</v>
       </c>
       <c r="K968" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L968" t="s">
         <v>252</v>
@@ -35910,7 +35913,7 @@
         <v>251</v>
       </c>
       <c r="K969" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L969" t="s">
         <v>252</v>
@@ -35948,7 +35951,7 @@
         <v>251</v>
       </c>
       <c r="K970" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L970" t="s">
         <v>257</v>
@@ -35986,7 +35989,7 @@
         <v>251</v>
       </c>
       <c r="K971" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L971" t="s">
         <v>257</v>
@@ -36024,7 +36027,7 @@
         <v>251</v>
       </c>
       <c r="K972" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L972" t="s">
         <v>257</v>
@@ -36062,7 +36065,7 @@
         <v>251</v>
       </c>
       <c r="K973" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L973" t="s">
         <v>257</v>
@@ -36100,7 +36103,7 @@
         <v>251</v>
       </c>
       <c r="K974" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L974" t="s">
         <v>257</v>
@@ -36138,7 +36141,7 @@
         <v>251</v>
       </c>
       <c r="K975" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L975" t="s">
         <v>257</v>
@@ -36176,7 +36179,7 @@
         <v>251</v>
       </c>
       <c r="K976" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L976" t="s">
         <v>257</v>
@@ -36214,7 +36217,7 @@
         <v>251</v>
       </c>
       <c r="K977" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L977" t="s">
         <v>257</v>
@@ -36252,7 +36255,7 @@
         <v>251</v>
       </c>
       <c r="K978" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L978" t="s">
         <v>257</v>
@@ -36290,7 +36293,7 @@
         <v>251</v>
       </c>
       <c r="K979" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L979" t="s">
         <v>252</v>
@@ -36328,7 +36331,7 @@
         <v>251</v>
       </c>
       <c r="K980" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L980" t="s">
         <v>252</v>
@@ -36366,7 +36369,7 @@
         <v>251</v>
       </c>
       <c r="K981" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L981" t="s">
         <v>252</v>
@@ -36404,7 +36407,7 @@
         <v>251</v>
       </c>
       <c r="K982" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L982" t="s">
         <v>252</v>
@@ -36442,7 +36445,7 @@
         <v>251</v>
       </c>
       <c r="K983" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L983" t="s">
         <v>252</v>
@@ -36480,7 +36483,7 @@
         <v>251</v>
       </c>
       <c r="K984" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L984" t="s">
         <v>252</v>
@@ -36518,7 +36521,7 @@
         <v>251</v>
       </c>
       <c r="K985" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L985" t="s">
         <v>252</v>
@@ -36556,7 +36559,7 @@
         <v>251</v>
       </c>
       <c r="K986" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L986" t="s">
         <v>252</v>
@@ -36594,7 +36597,7 @@
         <v>251</v>
       </c>
       <c r="K987" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L987" t="s">
         <v>252</v>
@@ -36632,7 +36635,7 @@
         <v>251</v>
       </c>
       <c r="K988" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L988" t="s">
         <v>257</v>
@@ -36670,7 +36673,7 @@
         <v>251</v>
       </c>
       <c r="K989" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L989" t="s">
         <v>257</v>
@@ -36708,7 +36711,7 @@
         <v>251</v>
       </c>
       <c r="K990" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L990" t="s">
         <v>257</v>
@@ -36746,7 +36749,7 @@
         <v>251</v>
       </c>
       <c r="K991" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L991" t="s">
         <v>252</v>
@@ -36784,7 +36787,7 @@
         <v>251</v>
       </c>
       <c r="K992" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L992" t="s">
         <v>252</v>
@@ -36822,7 +36825,7 @@
         <v>251</v>
       </c>
       <c r="K993" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L993" t="s">
         <v>252</v>
@@ -36860,7 +36863,7 @@
         <v>251</v>
       </c>
       <c r="K994" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L994" t="s">
         <v>252</v>
@@ -36898,7 +36901,7 @@
         <v>251</v>
       </c>
       <c r="K995" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L995" t="s">
         <v>252</v>
@@ -36936,7 +36939,7 @@
         <v>251</v>
       </c>
       <c r="K996" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L996" t="s">
         <v>252</v>
@@ -36974,7 +36977,7 @@
         <v>251</v>
       </c>
       <c r="K997" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L997" t="s">
         <v>252</v>
@@ -37012,7 +37015,7 @@
         <v>251</v>
       </c>
       <c r="K998" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L998" t="s">
         <v>252</v>
@@ -37050,7 +37053,7 @@
         <v>251</v>
       </c>
       <c r="K999" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L999" t="s">
         <v>252</v>
@@ -37088,7 +37091,7 @@
         <v>251</v>
       </c>
       <c r="K1000" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1000" t="s">
         <v>252</v>
@@ -37126,7 +37129,7 @@
         <v>251</v>
       </c>
       <c r="K1001" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1001" t="s">
         <v>252</v>
@@ -37164,7 +37167,7 @@
         <v>251</v>
       </c>
       <c r="K1002" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1002" t="s">
         <v>252</v>
@@ -37202,7 +37205,7 @@
         <v>251</v>
       </c>
       <c r="K1003" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1003" t="s">
         <v>252</v>
@@ -37240,7 +37243,7 @@
         <v>251</v>
       </c>
       <c r="K1004" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1004" t="s">
         <v>252</v>
@@ -37278,7 +37281,7 @@
         <v>251</v>
       </c>
       <c r="K1005" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1005" t="s">
         <v>252</v>
@@ -37316,7 +37319,7 @@
         <v>251</v>
       </c>
       <c r="K1006" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1006" t="s">
         <v>252</v>
@@ -37354,7 +37357,7 @@
         <v>251</v>
       </c>
       <c r="K1007" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1007" t="s">
         <v>252</v>
@@ -37392,7 +37395,7 @@
         <v>251</v>
       </c>
       <c r="K1008" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1008" t="s">
         <v>252</v>
@@ -37430,7 +37433,7 @@
         <v>251</v>
       </c>
       <c r="K1009" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1009" t="s">
         <v>252</v>
@@ -37468,7 +37471,7 @@
         <v>251</v>
       </c>
       <c r="K1010" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1010" t="s">
         <v>252</v>
@@ -37506,7 +37509,7 @@
         <v>251</v>
       </c>
       <c r="K1011" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1011" t="s">
         <v>252</v>
@@ -37544,7 +37547,7 @@
         <v>251</v>
       </c>
       <c r="K1012" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1012" t="s">
         <v>252</v>
@@ -37582,7 +37585,7 @@
         <v>251</v>
       </c>
       <c r="K1013" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1013" t="s">
         <v>252</v>
@@ -37620,7 +37623,7 @@
         <v>251</v>
       </c>
       <c r="K1014" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1014" t="s">
         <v>252</v>
@@ -37658,7 +37661,7 @@
         <v>251</v>
       </c>
       <c r="K1015" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1015" t="s">
         <v>252</v>
@@ -37696,7 +37699,7 @@
         <v>251</v>
       </c>
       <c r="K1016" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1016" t="s">
         <v>252</v>
@@ -37734,7 +37737,7 @@
         <v>251</v>
       </c>
       <c r="K1017" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1017" t="s">
         <v>252</v>
@@ -37772,7 +37775,7 @@
         <v>251</v>
       </c>
       <c r="K1018" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1018" t="s">
         <v>252</v>
@@ -37810,7 +37813,7 @@
         <v>251</v>
       </c>
       <c r="K1019" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1019" t="s">
         <v>252</v>
@@ -37848,7 +37851,7 @@
         <v>251</v>
       </c>
       <c r="K1020" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1020" t="s">
         <v>252</v>
@@ -37886,7 +37889,7 @@
         <v>251</v>
       </c>
       <c r="K1021" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1021" t="s">
         <v>252</v>
@@ -37924,7 +37927,7 @@
         <v>251</v>
       </c>
       <c r="K1022" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1022" t="s">
         <v>252</v>
@@ -37962,7 +37965,7 @@
         <v>251</v>
       </c>
       <c r="K1023" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1023" t="s">
         <v>252</v>
@@ -38000,7 +38003,7 @@
         <v>251</v>
       </c>
       <c r="K1024" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1024" t="s">
         <v>252</v>
@@ -38038,7 +38041,7 @@
         <v>251</v>
       </c>
       <c r="K1025" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1025" t="s">
         <v>252</v>
@@ -38076,7 +38079,7 @@
         <v>251</v>
       </c>
       <c r="K1026" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1026" t="s">
         <v>252</v>
@@ -38114,7 +38117,7 @@
         <v>251</v>
       </c>
       <c r="K1027" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1027" t="s">
         <v>252</v>
@@ -38152,7 +38155,7 @@
         <v>251</v>
       </c>
       <c r="K1028" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1028" t="s">
         <v>252</v>
@@ -38190,7 +38193,7 @@
         <v>251</v>
       </c>
       <c r="K1029" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1029" t="s">
         <v>252</v>
@@ -38228,7 +38231,7 @@
         <v>251</v>
       </c>
       <c r="K1030" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1030" t="s">
         <v>257</v>
@@ -38266,7 +38269,7 @@
         <v>251</v>
       </c>
       <c r="K1031" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1031" t="s">
         <v>257</v>
@@ -38304,7 +38307,7 @@
         <v>251</v>
       </c>
       <c r="K1032" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1032" t="s">
         <v>257</v>
@@ -38342,7 +38345,7 @@
         <v>251</v>
       </c>
       <c r="K1033" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1033" t="s">
         <v>257</v>
@@ -38380,7 +38383,7 @@
         <v>251</v>
       </c>
       <c r="K1034" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1034" t="s">
         <v>257</v>
@@ -38418,7 +38421,7 @@
         <v>251</v>
       </c>
       <c r="K1035" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1035" t="s">
         <v>257</v>
@@ -38456,7 +38459,7 @@
         <v>251</v>
       </c>
       <c r="K1036" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1036" t="s">
         <v>252</v>
@@ -38494,7 +38497,7 @@
         <v>251</v>
       </c>
       <c r="K1037" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1037" t="s">
         <v>252</v>
@@ -38532,7 +38535,7 @@
         <v>251</v>
       </c>
       <c r="K1038" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1038" t="s">
         <v>252</v>
@@ -38570,7 +38573,7 @@
         <v>251</v>
       </c>
       <c r="K1039" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1039" t="s">
         <v>252</v>
@@ -38608,7 +38611,7 @@
         <v>251</v>
       </c>
       <c r="K1040" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1040" t="s">
         <v>252</v>
@@ -38646,7 +38649,7 @@
         <v>251</v>
       </c>
       <c r="K1041" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1041" t="s">
         <v>252</v>
@@ -38684,7 +38687,7 @@
         <v>251</v>
       </c>
       <c r="K1042" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1042" t="s">
         <v>252</v>
@@ -38722,7 +38725,7 @@
         <v>251</v>
       </c>
       <c r="K1043" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1043" t="s">
         <v>252</v>
@@ -38760,7 +38763,7 @@
         <v>251</v>
       </c>
       <c r="K1044" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1044" t="s">
         <v>252</v>
@@ -38798,7 +38801,7 @@
         <v>251</v>
       </c>
       <c r="K1045" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1045" t="s">
         <v>257</v>
@@ -38836,7 +38839,7 @@
         <v>251</v>
       </c>
       <c r="K1046" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1046" t="s">
         <v>257</v>
@@ -38874,7 +38877,7 @@
         <v>251</v>
       </c>
       <c r="K1047" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1047" t="s">
         <v>257</v>
@@ -38912,7 +38915,7 @@
         <v>251</v>
       </c>
       <c r="K1048" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1048" t="s">
         <v>252</v>
@@ -38950,7 +38953,7 @@
         <v>251</v>
       </c>
       <c r="K1049" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1049" t="s">
         <v>252</v>
@@ -38988,7 +38991,7 @@
         <v>251</v>
       </c>
       <c r="K1050" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1050" t="s">
         <v>252</v>
@@ -39026,7 +39029,7 @@
         <v>251</v>
       </c>
       <c r="K1051" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1051" t="s">
         <v>257</v>
@@ -39064,7 +39067,7 @@
         <v>251</v>
       </c>
       <c r="K1052" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1052" t="s">
         <v>257</v>
@@ -39102,7 +39105,7 @@
         <v>251</v>
       </c>
       <c r="K1053" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1053" t="s">
         <v>257</v>
@@ -39140,7 +39143,7 @@
         <v>251</v>
       </c>
       <c r="K1054" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1054" t="s">
         <v>252</v>
@@ -39178,7 +39181,7 @@
         <v>251</v>
       </c>
       <c r="K1055" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1055" t="s">
         <v>252</v>
@@ -39216,7 +39219,7 @@
         <v>251</v>
       </c>
       <c r="K1056" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1056" t="s">
         <v>252</v>
@@ -39254,7 +39257,7 @@
         <v>251</v>
       </c>
       <c r="K1057" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1057" t="s">
         <v>252</v>
@@ -39292,7 +39295,7 @@
         <v>251</v>
       </c>
       <c r="K1058" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1058" t="s">
         <v>252</v>
@@ -39330,7 +39333,7 @@
         <v>251</v>
       </c>
       <c r="K1059" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1059" t="s">
         <v>252</v>
@@ -39368,7 +39371,7 @@
         <v>251</v>
       </c>
       <c r="K1060" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1060" t="s">
         <v>252</v>
@@ -39406,7 +39409,7 @@
         <v>251</v>
       </c>
       <c r="K1061" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1061" t="s">
         <v>252</v>
@@ -39444,7 +39447,7 @@
         <v>251</v>
       </c>
       <c r="K1062" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1062" t="s">
         <v>252</v>
@@ -39482,7 +39485,7 @@
         <v>251</v>
       </c>
       <c r="K1063" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1063" t="s">
         <v>252</v>
@@ -39520,7 +39523,7 @@
         <v>251</v>
       </c>
       <c r="K1064" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1064" t="s">
         <v>252</v>
@@ -39558,7 +39561,7 @@
         <v>251</v>
       </c>
       <c r="K1065" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1065" t="s">
         <v>252</v>
@@ -39596,7 +39599,7 @@
         <v>251</v>
       </c>
       <c r="K1066" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1066" t="s">
         <v>252</v>
@@ -39634,7 +39637,7 @@
         <v>251</v>
       </c>
       <c r="K1067" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1067" t="s">
         <v>252</v>
@@ -39672,7 +39675,7 @@
         <v>251</v>
       </c>
       <c r="K1068" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1068" t="s">
         <v>252</v>
@@ -39710,7 +39713,7 @@
         <v>251</v>
       </c>
       <c r="K1069" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1069" t="s">
         <v>252</v>
@@ -39748,7 +39751,7 @@
         <v>251</v>
       </c>
       <c r="K1070" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1070" t="s">
         <v>252</v>
@@ -39786,7 +39789,7 @@
         <v>251</v>
       </c>
       <c r="K1071" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1071" t="s">
         <v>252</v>
@@ -39824,7 +39827,7 @@
         <v>251</v>
       </c>
       <c r="K1072" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1072" t="s">
         <v>252</v>
@@ -39862,7 +39865,7 @@
         <v>251</v>
       </c>
       <c r="K1073" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1073" t="s">
         <v>252</v>
@@ -39900,7 +39903,7 @@
         <v>251</v>
       </c>
       <c r="K1074" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1074" t="s">
         <v>252</v>
@@ -39938,7 +39941,7 @@
         <v>251</v>
       </c>
       <c r="K1075" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1075" t="s">
         <v>252</v>
@@ -39976,7 +39979,7 @@
         <v>251</v>
       </c>
       <c r="K1076" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1076" t="s">
         <v>252</v>
@@ -40014,7 +40017,7 @@
         <v>251</v>
       </c>
       <c r="K1077" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1077" t="s">
         <v>252</v>
@@ -40052,7 +40055,7 @@
         <v>251</v>
       </c>
       <c r="K1078" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1078" t="s">
         <v>252</v>
@@ -40090,7 +40093,7 @@
         <v>251</v>
       </c>
       <c r="K1079" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1079" t="s">
         <v>252</v>
@@ -40128,7 +40131,7 @@
         <v>251</v>
       </c>
       <c r="K1080" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1080" t="s">
         <v>252</v>
@@ -40166,7 +40169,7 @@
         <v>251</v>
       </c>
       <c r="K1081" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1081" t="s">
         <v>252</v>
@@ -40204,7 +40207,7 @@
         <v>251</v>
       </c>
       <c r="K1082" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1082" t="s">
         <v>252</v>
@@ -40242,7 +40245,7 @@
         <v>251</v>
       </c>
       <c r="K1083" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1083" t="s">
         <v>252</v>
@@ -40280,7 +40283,7 @@
         <v>251</v>
       </c>
       <c r="K1084" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1084" t="s">
         <v>252</v>
@@ -40318,7 +40321,7 @@
         <v>251</v>
       </c>
       <c r="K1085" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1085" t="s">
         <v>252</v>
@@ -40356,7 +40359,7 @@
         <v>251</v>
       </c>
       <c r="K1086" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1086" t="s">
         <v>252</v>
@@ -40394,7 +40397,7 @@
         <v>251</v>
       </c>
       <c r="K1087" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1087" t="s">
         <v>252</v>
@@ -40432,7 +40435,7 @@
         <v>251</v>
       </c>
       <c r="K1088" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1088" t="s">
         <v>252</v>
@@ -40470,7 +40473,7 @@
         <v>251</v>
       </c>
       <c r="K1089" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1089" t="s">
         <v>252</v>
@@ -40508,7 +40511,7 @@
         <v>251</v>
       </c>
       <c r="K1090" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1090" t="s">
         <v>252</v>
@@ -40546,7 +40549,7 @@
         <v>251</v>
       </c>
       <c r="K1091" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1091" t="s">
         <v>252</v>
@@ -40584,7 +40587,7 @@
         <v>251</v>
       </c>
       <c r="K1092" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1092" t="s">
         <v>252</v>
@@ -40622,7 +40625,7 @@
         <v>251</v>
       </c>
       <c r="K1093" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1093" t="s">
         <v>252</v>
@@ -40660,7 +40663,7 @@
         <v>251</v>
       </c>
       <c r="K1094" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1094" t="s">
         <v>252</v>
@@ -40698,7 +40701,7 @@
         <v>251</v>
       </c>
       <c r="K1095" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1095" t="s">
         <v>252</v>
@@ -40736,7 +40739,7 @@
         <v>251</v>
       </c>
       <c r="K1096" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1096" t="s">
         <v>252</v>
@@ -40774,7 +40777,7 @@
         <v>251</v>
       </c>
       <c r="K1097" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1097" t="s">
         <v>252</v>
@@ -40812,7 +40815,7 @@
         <v>251</v>
       </c>
       <c r="K1098" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1098" t="s">
         <v>252</v>
@@ -40850,7 +40853,7 @@
         <v>251</v>
       </c>
       <c r="K1099" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1099" t="s">
         <v>252</v>
@@ -40888,7 +40891,7 @@
         <v>251</v>
       </c>
       <c r="K1100" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1100" t="s">
         <v>252</v>
@@ -40926,7 +40929,7 @@
         <v>251</v>
       </c>
       <c r="K1101" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1101" t="s">
         <v>252</v>
@@ -40964,7 +40967,7 @@
         <v>251</v>
       </c>
       <c r="K1102" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1102" t="s">
         <v>252</v>
@@ -41002,7 +41005,7 @@
         <v>251</v>
       </c>
       <c r="K1103" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1103" t="s">
         <v>252</v>
@@ -41040,7 +41043,7 @@
         <v>251</v>
       </c>
       <c r="K1104" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1104" t="s">
         <v>252</v>
@@ -41078,7 +41081,7 @@
         <v>251</v>
       </c>
       <c r="K1105" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1105" t="s">
         <v>252</v>
@@ -41116,7 +41119,7 @@
         <v>251</v>
       </c>
       <c r="K1106" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1106" t="s">
         <v>252</v>
@@ -41154,7 +41157,7 @@
         <v>251</v>
       </c>
       <c r="K1107" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1107" t="s">
         <v>252</v>
@@ -41192,7 +41195,7 @@
         <v>251</v>
       </c>
       <c r="K1108" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1108" t="s">
         <v>252</v>
@@ -41230,7 +41233,7 @@
         <v>251</v>
       </c>
       <c r="K1109" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1109" t="s">
         <v>252</v>
@@ -41268,7 +41271,7 @@
         <v>251</v>
       </c>
       <c r="K1110" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1110" t="s">
         <v>252</v>
@@ -41306,7 +41309,7 @@
         <v>251</v>
       </c>
       <c r="K1111" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1111" t="s">
         <v>252</v>
@@ -41344,7 +41347,7 @@
         <v>251</v>
       </c>
       <c r="K1112" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1112" t="s">
         <v>252</v>
@@ -41382,7 +41385,7 @@
         <v>251</v>
       </c>
       <c r="K1113" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1113" t="s">
         <v>252</v>
@@ -41420,7 +41423,7 @@
         <v>251</v>
       </c>
       <c r="K1114" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1114" t="s">
         <v>252</v>
@@ -41458,7 +41461,7 @@
         <v>251</v>
       </c>
       <c r="K1115" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1115" t="s">
         <v>252</v>
@@ -41496,7 +41499,7 @@
         <v>251</v>
       </c>
       <c r="K1116" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1116" t="s">
         <v>252</v>
@@ -41534,7 +41537,7 @@
         <v>251</v>
       </c>
       <c r="K1117" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1117" t="s">
         <v>252</v>
@@ -41572,7 +41575,7 @@
         <v>251</v>
       </c>
       <c r="K1118" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1118" t="s">
         <v>252</v>
@@ -41610,7 +41613,7 @@
         <v>251</v>
       </c>
       <c r="K1119" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1119" t="s">
         <v>252</v>
@@ -41648,7 +41651,7 @@
         <v>251</v>
       </c>
       <c r="K1120" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1120" t="s">
         <v>252</v>
@@ -41686,7 +41689,7 @@
         <v>251</v>
       </c>
       <c r="K1121" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1121" t="s">
         <v>252</v>
@@ -41724,7 +41727,7 @@
         <v>251</v>
       </c>
       <c r="K1122" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1122" t="s">
         <v>252</v>
@@ -41762,7 +41765,7 @@
         <v>251</v>
       </c>
       <c r="K1123" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1123" t="s">
         <v>257</v>
@@ -41800,7 +41803,7 @@
         <v>251</v>
       </c>
       <c r="K1124" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1124" t="s">
         <v>257</v>
@@ -41838,7 +41841,7 @@
         <v>251</v>
       </c>
       <c r="K1125" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1125" t="s">
         <v>257</v>
@@ -41876,7 +41879,7 @@
         <v>251</v>
       </c>
       <c r="K1126" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1126" t="s">
         <v>252</v>
@@ -41914,7 +41917,7 @@
         <v>251</v>
       </c>
       <c r="K1127" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1127" t="s">
         <v>252</v>
@@ -41952,7 +41955,7 @@
         <v>251</v>
       </c>
       <c r="K1128" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1128" t="s">
         <v>252</v>
@@ -41990,7 +41993,7 @@
         <v>251</v>
       </c>
       <c r="K1129" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1129" t="s">
         <v>252</v>
@@ -42028,7 +42031,7 @@
         <v>251</v>
       </c>
       <c r="K1130" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1130" t="s">
         <v>252</v>
@@ -42066,7 +42069,7 @@
         <v>251</v>
       </c>
       <c r="K1131" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1131" t="s">
         <v>252</v>
@@ -42104,7 +42107,7 @@
         <v>251</v>
       </c>
       <c r="K1132" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1132" t="s">
         <v>257</v>
@@ -42142,7 +42145,7 @@
         <v>251</v>
       </c>
       <c r="K1133" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1133" t="s">
         <v>257</v>
@@ -42180,7 +42183,7 @@
         <v>251</v>
       </c>
       <c r="K1134" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1134" t="s">
         <v>257</v>
@@ -42218,7 +42221,7 @@
         <v>251</v>
       </c>
       <c r="K1135" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1135" t="s">
         <v>252</v>
@@ -42256,7 +42259,7 @@
         <v>251</v>
       </c>
       <c r="K1136" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1136" t="s">
         <v>252</v>
@@ -42294,7 +42297,7 @@
         <v>251</v>
       </c>
       <c r="K1137" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1137" t="s">
         <v>252</v>
@@ -42332,7 +42335,7 @@
         <v>251</v>
       </c>
       <c r="K1138" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1138" t="s">
         <v>252</v>
@@ -42370,7 +42373,7 @@
         <v>251</v>
       </c>
       <c r="K1139" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1139" t="s">
         <v>252</v>
@@ -42408,7 +42411,7 @@
         <v>251</v>
       </c>
       <c r="K1140" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1140" t="s">
         <v>252</v>
@@ -42446,7 +42449,7 @@
         <v>251</v>
       </c>
       <c r="K1141" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1141" t="s">
         <v>252</v>
@@ -42484,7 +42487,7 @@
         <v>251</v>
       </c>
       <c r="K1142" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1142" t="s">
         <v>252</v>
@@ -42522,7 +42525,7 @@
         <v>251</v>
       </c>
       <c r="K1143" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1143" t="s">
         <v>252</v>
@@ -42560,7 +42563,7 @@
         <v>251</v>
       </c>
       <c r="K1144" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1144" t="s">
         <v>252</v>
@@ -42598,7 +42601,7 @@
         <v>251</v>
       </c>
       <c r="K1145" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1145" t="s">
         <v>252</v>
@@ -42636,7 +42639,7 @@
         <v>251</v>
       </c>
       <c r="K1146" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1146" t="s">
         <v>252</v>
@@ -42674,7 +42677,7 @@
         <v>251</v>
       </c>
       <c r="K1147" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1147" t="s">
         <v>582</v>
@@ -42712,7 +42715,7 @@
         <v>251</v>
       </c>
       <c r="K1148" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1148" t="s">
         <v>582</v>
@@ -42750,7 +42753,7 @@
         <v>251</v>
       </c>
       <c r="K1149" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1149" t="s">
         <v>582</v>
@@ -42788,7 +42791,7 @@
         <v>251</v>
       </c>
       <c r="K1150" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1150" t="s">
         <v>257</v>
@@ -42826,7 +42829,7 @@
         <v>251</v>
       </c>
       <c r="K1151" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1151" t="s">
         <v>257</v>
@@ -42864,7 +42867,7 @@
         <v>251</v>
       </c>
       <c r="K1152" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1152" t="s">
         <v>257</v>
@@ -42902,7 +42905,7 @@
         <v>251</v>
       </c>
       <c r="K1153" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1153" t="s">
         <v>252</v>
@@ -42940,7 +42943,7 @@
         <v>251</v>
       </c>
       <c r="K1154" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1154" t="s">
         <v>252</v>
@@ -42978,7 +42981,7 @@
         <v>251</v>
       </c>
       <c r="K1155" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1155" t="s">
         <v>252</v>
@@ -43016,7 +43019,7 @@
         <v>251</v>
       </c>
       <c r="K1156" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1156" t="s">
         <v>252</v>
@@ -43054,7 +43057,7 @@
         <v>251</v>
       </c>
       <c r="K1157" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1157" t="s">
         <v>252</v>
@@ -43092,7 +43095,7 @@
         <v>251</v>
       </c>
       <c r="K1158" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1158" t="s">
         <v>252</v>
@@ -43130,7 +43133,7 @@
         <v>251</v>
       </c>
       <c r="K1159" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1159" t="s">
         <v>252</v>
@@ -43168,7 +43171,7 @@
         <v>251</v>
       </c>
       <c r="K1160" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1160" t="s">
         <v>252</v>
@@ -43206,7 +43209,7 @@
         <v>251</v>
       </c>
       <c r="K1161" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L1161" t="s">
         <v>252</v>
@@ -43214,10 +43217,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L1161" xr:uid="{90522540-4000-4907-AD05-D1C11ACA3E85}">
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="AEP"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
